--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26729746.82</v>
+        <v>46617767.13</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921715.41</v>
+        <v>991867.39</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2182305.56</v>
+        <v>2031868.21</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>663631.64</v>
+        <v>641957.66</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2120822.68</v>
+        <v>2121584.53</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1648006.79</v>
+        <v>1592569.49</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156291.23</v>
+        <v>183603.07</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3850761.43</v>
+        <v>3782217.79</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1128067.35</v>
+        <v>1127558.83</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1826942.78</v>
+        <v>1797447.14</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1087065.31</v>
+        <v>1069389.38</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>682984.77</v>
+        <v>628310.4300000001</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1377520.3</v>
+        <v>1385225.84</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>507590.42</v>
+        <v>507560.09</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2313211.79</v>
+        <v>2313312.58</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>367492.91</v>
+        <v>367788.2</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1300475.35</v>
+        <v>1328235.43</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1381065.83</v>
+        <v>1338035.45</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>554431.17</v>
+        <v>554374.27</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1034269.84</v>
+        <v>1034393.4</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190841.95</v>
+        <v>190895.1</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>162077.91</v>
+        <v>183558.35</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442746.66</v>
+        <v>442766.26</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>398308.94</v>
+        <v>341282.04</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>416956.06</v>
+        <v>493918.17</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>171501.29</v>
+        <v>180496.49</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56722</v>
+        <v>56735.41</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303816.31</v>
+        <v>303852.08</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>221917.98</v>
+        <v>222032.43</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22813.69</v>
+        <v>22817.8</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,187 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159106.88</v>
+        <v>159240.21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>428007.94</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>500024.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20009.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>45403.61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3102956.45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>257134.12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>212736.92</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>42300.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>22266.29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>484125.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>298080.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>88581.84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>13063.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5549121.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>51006.32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>22817.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3981650.41</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5095453.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,656 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46617767.13</v>
+        <v>493918.17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>555521.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>991867.39</v>
+        <v>2031868.21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1965552.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2031868.21</v>
+        <v>180496.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>180458.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>641957.66</v>
+        <v>442766.26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>409772.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2121584.53</v>
+        <v>641957.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>641526.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1592569.49</v>
+        <v>2121584.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2121018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183603.07</v>
+        <v>22266.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22182.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3782217.79</v>
+        <v>484125.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>483598.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127558.83</v>
+        <v>56735.41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>59321.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1797447.14</v>
+        <v>13063.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13016.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069389.38</v>
+        <v>1592569.49</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1609557.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>628310.4300000001</v>
-      </c>
+        <v>183603.07</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1385225.84</v>
+        <v>428007.94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>434655.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>507560.09</v>
+        <v>5549121.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5520011.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2313312.58</v>
+        <v>3782217.79</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3718020.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>367788.2</v>
+        <v>1127558.83</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1128360.79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1328235.43</v>
+        <v>45403.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45407.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1338035.45</v>
+        <v>3102956.45</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3101616.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>554374.27</v>
+        <v>500024.52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>500230.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1034393.4</v>
+        <v>298080.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>297494.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190895.1</v>
+        <v>20009.05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19993.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183558.35</v>
+        <v>1328235.43</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1409067.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442766.26</v>
+        <v>1338035.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1386031.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>341282.04</v>
+        <v>1797447.14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1860247.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>493918.17</v>
+        <v>1069389.38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1084903.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>180496.49</v>
+        <v>303852.08</v>
+      </c>
+      <c r="C27" t="n">
+        <v>304076</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>56735.41</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>5640649.97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303852.08</v>
+        <v>222032.43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>222077.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>222032.43</v>
+        <v>51006.32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50979.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22817.8</v>
+        <v>628310.4300000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>597986.5699999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159240.21</v>
+        <v>1385225.84</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1384726.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>428007.94</v>
+        <v>183558.35</v>
+      </c>
+      <c r="C33" t="n">
+        <v>191837.98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500024.52</v>
+        <v>22817.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31306.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20009.05</v>
+        <v>22817.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31306.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45403.61</v>
+        <v>257134.12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>261735.88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3102956.45</v>
+        <v>212736.92</v>
+      </c>
+      <c r="C37" t="n">
+        <v>212849.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>257134.12</v>
+        <v>159240.21</v>
+      </c>
+      <c r="C38" t="n">
+        <v>159198.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212736.92</v>
+        <v>554374.27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>569589.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42300.85</v>
+        <v>1034393.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1153255.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22266.29</v>
+        <v>341282.04</v>
+      </c>
+      <c r="C41" t="n">
+        <v>341306.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>484125.3</v>
+        <v>507560.09</v>
+      </c>
+      <c r="C42" t="n">
+        <v>507296.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>298080.8</v>
+        <v>367788.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>367543.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>88581.84</v>
+        <v>2313312.58</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2313501.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13063.8</v>
+        <v>3981650.41</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3982233.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5549121.7</v>
+        <v>5095453.28</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5890140.48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51006.32</v>
+        <v>42300.85</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42883.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>22817.8</v>
+        <v>190895.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>190817.94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3981650.41</v>
+        <v>88581.84</v>
+      </c>
+      <c r="C49" t="n">
+        <v>88525.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5095453.28</v>
+        <v>991867.39</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1129859.37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>46617767.13</v>
+      </c>
+      <c r="C51" t="n">
+        <v>53103390.61</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,525 +439,686 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53643957.42</v>
+        <v>555521.72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>780789.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1072879.15</v>
+        <v>1965552.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1964743.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555521.72</v>
+        <v>180458.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>191274.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965552.25</v>
+        <v>409772.54</v>
+      </c>
+      <c r="C5" t="n">
+        <v>432395.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180458.44</v>
+        <v>641526.89</v>
+      </c>
+      <c r="C6" t="n">
+        <v>641456.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409772.54</v>
+        <v>2121018</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2121140.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>641526.89</v>
+        <v>60203.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60345.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2121018</v>
+        <v>280549.07</v>
+      </c>
+      <c r="C9" t="n">
+        <v>315455.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60203.17</v>
+        <v>22182.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14634.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280549.07</v>
+        <v>483598.22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>482059.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22182.47</v>
+        <v>59321.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59322.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>483598.22</v>
+        <v>13016.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13039.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59321.84</v>
+        <v>1609557.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1675673.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13016.39</v>
+        <v>190921.05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>190918.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1609557.2</v>
+        <v>434655.43</v>
+      </c>
+      <c r="C16" t="n">
+        <v>434722.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190921.05</v>
+        <v>5520011.45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5478700.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>434655.43</v>
+        <v>40199.72</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40202.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5520011.45</v>
+        <v>3718020.23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3622166.41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40199.72</v>
+        <v>1128360.79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1127816.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3718020.23</v>
+        <v>500230.26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>500228.56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1128360.79</v>
+        <v>19993.64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20007.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>500230.26</v>
+        <v>45407.82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>45414.76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19993.64</v>
+        <v>3101616.47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3049799.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45407.82</v>
+        <v>297494.04</v>
+      </c>
+      <c r="C25" t="n">
+        <v>298120.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3101616.47</v>
+        <v>1409067.53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1438504.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>297494.04</v>
+        <v>1386031.58</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1411582.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1409067.53</v>
+        <v>1860247.18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2201916.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1386031.58</v>
+        <v>1084903.44</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1317442.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1860247.18</v>
+        <v>304076</v>
+      </c>
+      <c r="C30" t="n">
+        <v>303875.61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1084903.44</v>
+        <v>5640649.97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5641847.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304076</v>
+        <v>222077.87</v>
+      </c>
+      <c r="C32" t="n">
+        <v>237028.35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5640649.97</v>
+        <v>50979.46</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50988.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222077.87</v>
+        <v>597986.5699999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>587771.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50979.46</v>
+        <v>1384726.83</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1395133.34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>597986.5699999999</v>
+        <v>191837.98</v>
+      </c>
+      <c r="C36" t="n">
+        <v>200806.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1384726.83</v>
+        <v>31306.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31316.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191837.98</v>
+        <v>261735.88</v>
+      </c>
+      <c r="C38" t="n">
+        <v>277947.33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31306.2</v>
+        <v>212849.36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>212751.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>261735.88</v>
+        <v>159198.75</v>
+      </c>
+      <c r="C40" t="n">
+        <v>159108.49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212849.36</v>
+        <v>569589.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>569699.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159198.75</v>
+        <v>1153255.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1153463.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>569589.4</v>
+        <v>341306.89</v>
+      </c>
+      <c r="C43" t="n">
+        <v>341388.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153255.7</v>
+        <v>507296.33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>507295.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>341306.89</v>
+        <v>367543.33</v>
+      </c>
+      <c r="C45" t="n">
+        <v>367494.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507296.33</v>
+        <v>2313501.55</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2313158.64</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>367543.33</v>
+        <v>3982233.18</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3981960.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2313501.55</v>
+        <v>5890140.48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7475061.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3982233.18</v>
+        <v>42883.67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41495.97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5890140.48</v>
+        <v>190817.94</v>
+      </c>
+      <c r="C50" t="n">
+        <v>190746.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>42883.67</v>
+        <v>88525.25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>88448.78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>190817.94</v>
+        <v>1072879.15</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1121173.26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>88525.25</v>
+        <v>53643957.42</v>
+      </c>
+      <c r="C53" t="n">
+        <v>56058662.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -675,9 +675,7 @@
       <c r="B19" t="n">
         <v>3718020.23</v>
       </c>
-      <c r="C19" t="n">
-        <v>3622166.41</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +686,7 @@
       <c r="B20" t="n">
         <v>1128360.79</v>
       </c>
-      <c r="C20" t="n">
-        <v>1127816.33</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +697,7 @@
       <c r="B21" t="n">
         <v>500230.26</v>
       </c>
-      <c r="C21" t="n">
-        <v>500228.56</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +708,7 @@
       <c r="B22" t="n">
         <v>19993.64</v>
       </c>
-      <c r="C22" t="n">
-        <v>20007.35</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +719,7 @@
       <c r="B23" t="n">
         <v>45407.82</v>
       </c>
-      <c r="C23" t="n">
-        <v>45414.76</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +730,7 @@
       <c r="B24" t="n">
         <v>3101616.47</v>
       </c>
-      <c r="C24" t="n">
-        <v>3049799.52</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +741,7 @@
       <c r="B25" t="n">
         <v>297494.04</v>
       </c>
-      <c r="C25" t="n">
-        <v>298120.48</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +752,7 @@
       <c r="B26" t="n">
         <v>1409067.53</v>
       </c>
-      <c r="C26" t="n">
-        <v>1438504.19</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -779,9 +763,7 @@
       <c r="B27" t="n">
         <v>1386031.58</v>
       </c>
-      <c r="C27" t="n">
-        <v>1411582.04</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -792,9 +774,7 @@
       <c r="B28" t="n">
         <v>1860247.18</v>
       </c>
-      <c r="C28" t="n">
-        <v>2201916.87</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -961,9 +941,7 @@
       <c r="B41" t="n">
         <v>569589.4</v>
       </c>
-      <c r="C41" t="n">
-        <v>569699.02</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1105,7 +1083,7 @@
         <v>1072879.15</v>
       </c>
       <c r="C52" t="n">
-        <v>1121173.26</v>
+        <v>1071113.01</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1096,7 @@
         <v>53643957.42</v>
       </c>
       <c r="C53" t="n">
-        <v>56058662.9</v>
+        <v>41773407.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>555521.72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>780789.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>951424.87</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1004224.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1003943.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1004459.38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1004362.04</v>
+      </c>
+      <c r="I2" t="n">
+        <v>927768.5600000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>861650.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>821925.61</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821646.3100000001</v>
+      </c>
+      <c r="M2" t="n">
         <v>778477.79</v>
-      </c>
-      <c r="C2" t="n">
-        <v>778291.45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>790442.8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>778670.97</v>
-      </c>
-      <c r="F2" t="n">
-        <v>785430.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>800562.24</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1965552.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1964743.29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2054790.46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2181128.59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2097522.72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2123413</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2026945.65</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2026217.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2058094.54</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2154507.96</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2069650.92</v>
+      </c>
+      <c r="M3" t="n">
         <v>2069147.86</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2127198.9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2160272.96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2128485.73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2127146.56</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2229147.02</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>180458.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>191274.98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>211212.81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>211288.24</v>
+      </c>
+      <c r="F4" t="n">
+        <v>211211.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>212307.27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>211067.56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>211040.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>210982.49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>211108.17</v>
+      </c>
+      <c r="L4" t="n">
+        <v>211088.83</v>
+      </c>
+      <c r="M4" t="n">
         <v>211079.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>211295.13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>213502.07</v>
-      </c>
-      <c r="E4" t="n">
-        <v>211300.43</v>
-      </c>
-      <c r="F4" t="n">
-        <v>211083.35</v>
-      </c>
-      <c r="G4" t="n">
-        <v>231484.78</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>409772.54</v>
+      </c>
+      <c r="C5" t="n">
+        <v>432395.27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>440779.01</v>
+      </c>
+      <c r="E5" t="n">
+        <v>465560.74</v>
+      </c>
+      <c r="F5" t="n">
+        <v>465464.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>465428.34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>465364.01</v>
+      </c>
+      <c r="I5" t="n">
+        <v>465643.84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>465696.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>472865.62</v>
+      </c>
+      <c r="L5" t="n">
+        <v>472678.58</v>
+      </c>
+      <c r="M5" t="n">
         <v>472984.42</v>
-      </c>
-      <c r="C5" t="n">
-        <v>489746.13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>497265</v>
-      </c>
-      <c r="E5" t="n">
-        <v>489813.95</v>
-      </c>
-      <c r="F5" t="n">
-        <v>454681.21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>444942.31</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>641526.89</v>
+      </c>
+      <c r="C6" t="n">
+        <v>641456.41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>657942.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>658007.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>658359.03</v>
+      </c>
+      <c r="G6" t="n">
+        <v>658394.5600000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>658133.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>658718.59</v>
+      </c>
+      <c r="J6" t="n">
+        <v>658166.9300000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>657991.4399999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>658182.17</v>
+      </c>
+      <c r="M6" t="n">
         <v>591710.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>591930.28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>600886.01</v>
-      </c>
-      <c r="E6" t="n">
-        <v>591968.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>591809.6800000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>591687.1899999999</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>2121018</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2121140.19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2121845.09</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2121459.97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2120596.17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2120566.16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2121909.71</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2120791.07</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2120631.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2034919.45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2035947.65</v>
+      </c>
+      <c r="M7" t="n">
         <v>1903190.69</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1903345.93</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1933193.76</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1892297.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1893036.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1892515.07</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>60203.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60345.62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59638.56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60126.72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60133.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60358.58</v>
+      </c>
+      <c r="H8" t="n">
+        <v>60286.51</v>
+      </c>
+      <c r="I8" t="n">
+        <v>60194.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>60009.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>59909.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>60356.31</v>
+      </c>
+      <c r="M8" t="n">
         <v>59893.39</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60355.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60914.91</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59700.44</v>
-      </c>
-      <c r="F8" t="n">
-        <v>59742.29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>59973.62</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>280549.07</v>
+      </c>
+      <c r="C9" t="n">
+        <v>315455.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>328793.63</v>
+      </c>
+      <c r="E9" t="n">
+        <v>328696.83</v>
+      </c>
+      <c r="F9" t="n">
+        <v>328817.89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>328774.91</v>
+      </c>
+      <c r="H9" t="n">
+        <v>328525.88</v>
+      </c>
+      <c r="I9" t="n">
+        <v>328690.59</v>
+      </c>
+      <c r="J9" t="n">
+        <v>328515.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>321509.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>321593.12</v>
+      </c>
+      <c r="M9" t="n">
         <v>321693.89</v>
-      </c>
-      <c r="C9" t="n">
-        <v>321599.78</v>
-      </c>
-      <c r="D9" t="n">
-        <v>326239.74</v>
-      </c>
-      <c r="E9" t="n">
-        <v>321247.93</v>
-      </c>
-      <c r="F9" t="n">
-        <v>321665.91</v>
-      </c>
-      <c r="G9" t="n">
-        <v>321691.99</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>22182.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14634.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14640.92</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14681.79</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14630.41</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14701.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14699.51</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14603.51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14635.52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14661.27</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14627.12</v>
+      </c>
+      <c r="M10" t="n">
         <v>14636.93</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14606.05</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14819.23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14663.81</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14659.74</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14616.31</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>483598.22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>482059.93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>484191.81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>480976.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>480673.81</v>
+      </c>
+      <c r="G11" t="n">
+        <v>483649.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>484293.07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>485074.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>482947.79</v>
+      </c>
+      <c r="K11" t="n">
+        <v>482572.41</v>
+      </c>
+      <c r="L11" t="n">
+        <v>483261.19</v>
+      </c>
+      <c r="M11" t="n">
         <v>483304.19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>484248.39</v>
-      </c>
-      <c r="D11" t="n">
-        <v>487155.99</v>
-      </c>
-      <c r="E11" t="n">
-        <v>482043.62</v>
-      </c>
-      <c r="F11" t="n">
-        <v>479982.74</v>
-      </c>
-      <c r="G11" t="n">
-        <v>483497.08</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>59321.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59322.28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59323.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59282.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>59145.65</v>
+      </c>
+      <c r="G12" t="n">
+        <v>59184.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>59187</v>
+      </c>
+      <c r="I12" t="n">
+        <v>59151.02</v>
+      </c>
+      <c r="J12" t="n">
+        <v>59126.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7129.81</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7130.67</v>
+      </c>
+      <c r="M12" t="n">
         <v>7132.76</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7135.05</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7238.29</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7131.91</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7130.92</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7133.19</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>13016.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13039.74</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13013.32</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13021.64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13001.36</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13010.45</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13024.99</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13004.62</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13012.31</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13045.77</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13053.36</v>
+      </c>
+      <c r="M13" t="n">
         <v>13032.97</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13003.23</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13205.83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13059.33</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13025.39</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13037.43</v>
       </c>
     </row>
     <row r="14">
@@ -772,922 +1018,1643 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1609557.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1675673.22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1612861.63</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1620808.06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1646250.41</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1668172.55</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1677670.85</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1665821.69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1650765.16</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1650561.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1586748.31</v>
+      </c>
+      <c r="M14" t="n">
         <v>1587125.16</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1661824.27</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1672936.95</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1637278.66</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1717503.11</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1738098.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>434695.98</v>
+        <v>190921.05</v>
       </c>
       <c r="C15" t="n">
-        <v>434937.49</v>
+        <v>190918.76</v>
       </c>
       <c r="D15" t="n">
-        <v>441461.31</v>
+        <v>197904.85</v>
       </c>
       <c r="E15" t="n">
-        <v>434473.42</v>
-      </c>
-      <c r="F15" t="n">
-        <v>435975.09</v>
-      </c>
-      <c r="G15" t="n">
-        <v>435896.27</v>
-      </c>
+        <v>205602.39</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5124786.3</v>
+        <v>434655.43</v>
       </c>
       <c r="C16" t="n">
-        <v>5100806.46</v>
+        <v>434722.52</v>
       </c>
       <c r="D16" t="n">
-        <v>5141694.7</v>
+        <v>434941.74</v>
       </c>
       <c r="E16" t="n">
-        <v>5034553.32</v>
+        <v>434605.53</v>
       </c>
       <c r="F16" t="n">
-        <v>4987101.39</v>
+        <v>434934.52</v>
       </c>
       <c r="G16" t="n">
-        <v>4948491.47</v>
+        <v>434833.61</v>
+      </c>
+      <c r="H16" t="n">
+        <v>434836.69</v>
+      </c>
+      <c r="I16" t="n">
+        <v>434747.34</v>
+      </c>
+      <c r="J16" t="n">
+        <v>434730.67</v>
+      </c>
+      <c r="K16" t="n">
+        <v>435006.71</v>
+      </c>
+      <c r="L16" t="n">
+        <v>434372.72</v>
+      </c>
+      <c r="M16" t="n">
+        <v>434695.98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40202.54</v>
+        <v>5520011.45</v>
       </c>
       <c r="C17" t="n">
-        <v>40220.72</v>
+        <v>5478700.07</v>
       </c>
       <c r="D17" t="n">
-        <v>40823.3</v>
+        <v>5466515.1</v>
       </c>
       <c r="E17" t="n">
-        <v>40216.01</v>
+        <v>5407769.52</v>
       </c>
       <c r="F17" t="n">
-        <v>40219.95</v>
+        <v>5383358.24</v>
       </c>
       <c r="G17" t="n">
-        <v>40206.03</v>
+        <v>5308848.31</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5309507.14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5283728.39</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5236127.27</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5214306.24</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5202547.72</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5124786.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2946945.22</v>
+        <v>40199.72</v>
       </c>
       <c r="C18" t="n">
-        <v>2948234.82</v>
+        <v>40202.68</v>
       </c>
       <c r="D18" t="n">
-        <v>2994109.03</v>
+        <v>40218.24</v>
       </c>
       <c r="E18" t="n">
-        <v>2946916.7</v>
+        <v>40203.08</v>
       </c>
       <c r="F18" t="n">
-        <v>2948749.2</v>
+        <v>40213.75</v>
       </c>
       <c r="G18" t="n">
-        <v>2948923.44</v>
+        <v>40216.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>40211.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40217.83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>40201.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40198.84</v>
+      </c>
+      <c r="L18" t="n">
+        <v>40201.44</v>
+      </c>
+      <c r="M18" t="n">
+        <v>40202.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847579.61</v>
-      </c>
-      <c r="C19" t="n">
-        <v>847898.47</v>
-      </c>
+        <v>3718020.23</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>860554.83</v>
+        <v>3622237.5</v>
       </c>
       <c r="E19" t="n">
-        <v>847673.1</v>
+        <v>3622150.31</v>
       </c>
       <c r="F19" t="n">
-        <v>847358.8</v>
+        <v>3603438.56</v>
       </c>
       <c r="G19" t="n">
-        <v>847736.59</v>
+        <v>3550336.11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3531769.02</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3320625.63</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3031917.98</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3032742.09</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3031017.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2946945.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>500079.71</v>
-      </c>
-      <c r="C20" t="n">
-        <v>500339.2</v>
-      </c>
+        <v>1128360.79</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>507763.62</v>
+        <v>1043514.09</v>
       </c>
       <c r="E20" t="n">
-        <v>500180.16</v>
+        <v>1043142.73</v>
       </c>
       <c r="F20" t="n">
-        <v>499993.84</v>
+        <v>1043012.65</v>
       </c>
       <c r="G20" t="n">
-        <v>500283.13</v>
+        <v>1043023.22</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1061196.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1060663.62</v>
+      </c>
+      <c r="J20" t="n">
+        <v>847323.84</v>
+      </c>
+      <c r="K20" t="n">
+        <v>847354.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>847394.11</v>
+      </c>
+      <c r="M20" t="n">
+        <v>847579.61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16545.02</v>
-      </c>
-      <c r="C21" t="n">
-        <v>16558.05</v>
-      </c>
+        <v>500230.26</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>16795.87</v>
+        <v>500249.45</v>
       </c>
       <c r="E21" t="n">
-        <v>16551.94</v>
+        <v>500340.49</v>
       </c>
       <c r="F21" t="n">
-        <v>16557.76</v>
+        <v>500113.67</v>
       </c>
       <c r="G21" t="n">
-        <v>16548.01</v>
+        <v>500062.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>500108.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>500014.61</v>
+      </c>
+      <c r="J21" t="n">
+        <v>500375.36</v>
+      </c>
+      <c r="K21" t="n">
+        <v>500058.83</v>
+      </c>
+      <c r="L21" t="n">
+        <v>500260.57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>500079.71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30325.09</v>
-      </c>
-      <c r="C22" t="n">
-        <v>30329.79</v>
-      </c>
+        <v>19993.64</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>30792.57</v>
+        <v>16550.5</v>
       </c>
       <c r="E22" t="n">
-        <v>30333.9</v>
+        <v>16544.36</v>
       </c>
       <c r="F22" t="n">
-        <v>30318.08</v>
+        <v>16542.54</v>
       </c>
       <c r="G22" t="n">
-        <v>30330.93</v>
+        <v>16556.61</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16547.96</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16543.89</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16545.39</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16557.56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>16557.68</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16545.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2792950.86</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2792798.16</v>
-      </c>
+        <v>45407.82</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>2834685.45</v>
+        <v>36790.57</v>
       </c>
       <c r="E23" t="n">
-        <v>2793307.41</v>
+        <v>36787.71</v>
       </c>
       <c r="F23" t="n">
-        <v>2793154.91</v>
+        <v>36783.09</v>
       </c>
       <c r="G23" t="n">
-        <v>2865092.85</v>
+        <v>36781.78</v>
+      </c>
+      <c r="H23" t="n">
+        <v>36778.38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>36773.83</v>
+      </c>
+      <c r="J23" t="n">
+        <v>36791.12</v>
+      </c>
+      <c r="K23" t="n">
+        <v>36778.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>36782.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30325.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>235963.68</v>
-      </c>
-      <c r="C24" t="n">
-        <v>236146.97</v>
-      </c>
+        <v>3101616.47</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>239469.96</v>
+        <v>2997351.81</v>
       </c>
       <c r="E24" t="n">
-        <v>288756.78</v>
+        <v>2943804.36</v>
       </c>
       <c r="F24" t="n">
-        <v>336012.6</v>
+        <v>2851242.69</v>
       </c>
       <c r="G24" t="n">
-        <v>417172.06</v>
+        <v>2793601.56</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2792482.88</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2792747.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2793141.06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2792158.63</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2792123.64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2792950.86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1659473.78</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1698646.85</v>
-      </c>
+        <v>297494.04</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>1743717.55</v>
+        <v>298379.17</v>
       </c>
       <c r="E25" t="n">
-        <v>1678028.46</v>
+        <v>296598.72</v>
       </c>
       <c r="F25" t="n">
-        <v>1677340.79</v>
+        <v>297937.56</v>
       </c>
       <c r="G25" t="n">
-        <v>1741759.91</v>
+        <v>297810.46</v>
+      </c>
+      <c r="H25" t="n">
+        <v>298437.45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>298451.58</v>
+      </c>
+      <c r="J25" t="n">
+        <v>297112.64</v>
+      </c>
+      <c r="K25" t="n">
+        <v>235671.77</v>
+      </c>
+      <c r="L25" t="n">
+        <v>236425.87</v>
+      </c>
+      <c r="M25" t="n">
+        <v>235963.68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1563937.42</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1595168.16</v>
-      </c>
+        <v>1409067.53</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>1619313.42</v>
+        <v>1457206.68</v>
       </c>
       <c r="E26" t="n">
-        <v>1548373.48</v>
+        <v>1618645.03</v>
       </c>
       <c r="F26" t="n">
-        <v>1578622.43</v>
+        <v>1678779.59</v>
       </c>
       <c r="G26" t="n">
-        <v>1633967.94</v>
+        <v>1655625.54</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1606862.93</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1555889.37</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1540438.84</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1487276.09</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1536175.99</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1659473.78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2341746.19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2342606.2</v>
-      </c>
+        <v>1386031.58</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>2382388.8</v>
+        <v>1494802.26</v>
       </c>
       <c r="E27" t="n">
-        <v>2313039.55</v>
+        <v>1535279.55</v>
       </c>
       <c r="F27" t="n">
-        <v>2446494.51</v>
+        <v>1545419.92</v>
       </c>
       <c r="G27" t="n">
-        <v>2488143.24</v>
+        <v>1526230.24</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1466254.76</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1414152.01</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1436303.46</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1437206.58</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1452746.13</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1563937.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1439805.44</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1539462.47</v>
-      </c>
+        <v>1860247.18</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>1562488.51</v>
+        <v>2359610.82</v>
       </c>
       <c r="E28" t="n">
-        <v>1448745.73</v>
+        <v>2613295.01</v>
       </c>
       <c r="F28" t="n">
-        <v>1479812.72</v>
+        <v>2582560.55</v>
       </c>
       <c r="G28" t="n">
-        <v>1469757.46</v>
+        <v>2582685.63</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2581765.98</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2582739.27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2492005.92</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2381740.74</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2342087.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2341746.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173928.59</v>
+        <v>1084903.44</v>
       </c>
       <c r="C29" t="n">
-        <v>174285.2</v>
+        <v>1317442.24</v>
       </c>
       <c r="D29" t="n">
-        <v>176632.71</v>
+        <v>1358597.38</v>
       </c>
       <c r="E29" t="n">
-        <v>174030.78</v>
+        <v>1437444.81</v>
       </c>
       <c r="F29" t="n">
-        <v>174099.92</v>
+        <v>1482660.1</v>
       </c>
       <c r="G29" t="n">
-        <v>174183.99</v>
+        <v>1502422.53</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1502213.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1502283.09</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1502039.67</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1502018.28</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1392684.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1439805.44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7500865.08</v>
+        <v>304076</v>
       </c>
       <c r="C30" t="n">
-        <v>7500604.68</v>
+        <v>303875.61</v>
       </c>
       <c r="D30" t="n">
-        <v>7615494.85</v>
+        <v>173997.99</v>
       </c>
       <c r="E30" t="n">
-        <v>7498509.38</v>
+        <v>174063.52</v>
       </c>
       <c r="F30" t="n">
-        <v>8101488.68</v>
+        <v>174134.09</v>
       </c>
       <c r="G30" t="n">
-        <v>8098192.82</v>
+        <v>173883.95</v>
+      </c>
+      <c r="H30" t="n">
+        <v>174266.86</v>
+      </c>
+      <c r="I30" t="n">
+        <v>173825.66</v>
+      </c>
+      <c r="J30" t="n">
+        <v>174167.37</v>
+      </c>
+      <c r="K30" t="n">
+        <v>173977.82</v>
+      </c>
+      <c r="L30" t="n">
+        <v>174088.43</v>
+      </c>
+      <c r="M30" t="n">
+        <v>173928.59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>246969.72</v>
+        <v>5640649.97</v>
       </c>
       <c r="C31" t="n">
-        <v>247027.85</v>
+        <v>5641847.99</v>
       </c>
       <c r="D31" t="n">
-        <v>250695.32</v>
+        <v>5643093.52</v>
       </c>
       <c r="E31" t="n">
-        <v>247000.91</v>
+        <v>5642648.24</v>
       </c>
       <c r="F31" t="n">
-        <v>246994.73</v>
+        <v>5641784.79</v>
       </c>
       <c r="G31" t="n">
-        <v>247026.18</v>
+        <v>5860180.53</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6112676.52</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6111576.02</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6609642.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6997255.62</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7497519.47</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7500865.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61011.2</v>
+        <v>222077.87</v>
       </c>
       <c r="C32" t="n">
-        <v>61011.28</v>
+        <v>237028.35</v>
       </c>
       <c r="D32" t="n">
-        <v>61910.34</v>
+        <v>227086.86</v>
       </c>
       <c r="E32" t="n">
-        <v>60976.54</v>
+        <v>246944.91</v>
       </c>
       <c r="F32" t="n">
-        <v>60996.74</v>
+        <v>247078.44</v>
       </c>
       <c r="G32" t="n">
-        <v>60993.65</v>
+        <v>246958.21</v>
+      </c>
+      <c r="H32" t="n">
+        <v>246925.34</v>
+      </c>
+      <c r="I32" t="n">
+        <v>247094.71</v>
+      </c>
+      <c r="J32" t="n">
+        <v>247019.78</v>
+      </c>
+      <c r="K32" t="n">
+        <v>247088.03</v>
+      </c>
+      <c r="L32" t="n">
+        <v>246968.34</v>
+      </c>
+      <c r="M32" t="n">
+        <v>246969.72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>508321.92</v>
+        <v>50979.46</v>
       </c>
       <c r="C33" t="n">
-        <v>442879.64</v>
+        <v>50988.11</v>
       </c>
       <c r="D33" t="n">
-        <v>449736.67</v>
+        <v>50994.84</v>
       </c>
       <c r="E33" t="n">
-        <v>442802.02</v>
+        <v>50978.77</v>
       </c>
       <c r="F33" t="n">
-        <v>452982.9</v>
+        <v>51003.08</v>
       </c>
       <c r="G33" t="n">
-        <v>432892.71</v>
+        <v>50980.45</v>
+      </c>
+      <c r="H33" t="n">
+        <v>51014.39</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50986.59</v>
+      </c>
+      <c r="J33" t="n">
+        <v>51002.33</v>
+      </c>
+      <c r="K33" t="n">
+        <v>50977.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>50981.76</v>
+      </c>
+      <c r="M33" t="n">
+        <v>61011.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1109124.03</v>
+        <v>597986.5699999999</v>
       </c>
       <c r="C34" t="n">
-        <v>1123801.73</v>
+        <v>587771.51</v>
       </c>
       <c r="D34" t="n">
-        <v>1141454.24</v>
+        <v>577959.78</v>
       </c>
       <c r="E34" t="n">
-        <v>1124197.76</v>
+        <v>578251.95</v>
       </c>
       <c r="F34" t="n">
-        <v>1144417.96</v>
+        <v>578069.55</v>
       </c>
       <c r="G34" t="n">
-        <v>1214148.8</v>
+        <v>563339.09</v>
+      </c>
+      <c r="H34" t="n">
+        <v>572717.74</v>
+      </c>
+      <c r="I34" t="n">
+        <v>503139.77</v>
+      </c>
+      <c r="J34" t="n">
+        <v>493337.61</v>
+      </c>
+      <c r="K34" t="n">
+        <v>477994.56</v>
+      </c>
+      <c r="L34" t="n">
+        <v>508318.97</v>
+      </c>
+      <c r="M34" t="n">
+        <v>508321.92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>277831.53</v>
+        <v>1384726.83</v>
       </c>
       <c r="C35" t="n">
-        <v>277943.84</v>
+        <v>1395133.34</v>
       </c>
       <c r="D35" t="n">
-        <v>274158.53</v>
+        <v>1188931.85</v>
       </c>
       <c r="E35" t="n">
-        <v>267398.56</v>
+        <v>1189231.46</v>
       </c>
       <c r="F35" t="n">
-        <v>272230.36</v>
+        <v>1188785.33</v>
       </c>
       <c r="G35" t="n">
-        <v>288846.3</v>
+        <v>1189097.19</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1188876.03</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1189435.29</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1189010.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1189274.34</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1133422.13</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1109124.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35231.5</v>
+        <v>191837.98</v>
       </c>
       <c r="C36" t="n">
-        <v>34165.94</v>
+        <v>200806.93</v>
       </c>
       <c r="D36" t="n">
-        <v>34681.36</v>
+        <v>257643.54</v>
       </c>
       <c r="E36" t="n">
-        <v>34151</v>
+        <v>269903.37</v>
       </c>
       <c r="F36" t="n">
-        <v>34136.56</v>
+        <v>267304.8</v>
       </c>
       <c r="G36" t="n">
-        <v>34138.35</v>
+        <v>267477.73</v>
+      </c>
+      <c r="H36" t="n">
+        <v>317594.65</v>
+      </c>
+      <c r="I36" t="n">
+        <v>317588.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>317542.04</v>
+      </c>
+      <c r="K36" t="n">
+        <v>317400.31</v>
+      </c>
+      <c r="L36" t="n">
+        <v>315586</v>
+      </c>
+      <c r="M36" t="n">
+        <v>277831.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>299570.19</v>
+        <v>31306.2</v>
       </c>
       <c r="C37" t="n">
-        <v>299568.43</v>
+        <v>31316.24</v>
       </c>
       <c r="D37" t="n">
-        <v>304179.77</v>
+        <v>35211.58</v>
       </c>
       <c r="E37" t="n">
-        <v>310013.71</v>
+        <v>35242.48</v>
       </c>
       <c r="F37" t="n">
-        <v>348972.21</v>
+        <v>35221.13</v>
       </c>
       <c r="G37" t="n">
-        <v>352055.42</v>
+        <v>35211.37</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35216.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35223.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35243.67</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35237.13</v>
+      </c>
+      <c r="L37" t="n">
+        <v>35210.51</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35231.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212883.94</v>
+        <v>261735.88</v>
       </c>
       <c r="C38" t="n">
-        <v>212899.57</v>
+        <v>277947.33</v>
       </c>
       <c r="D38" t="n">
-        <v>215978.33</v>
+        <v>282982.95</v>
       </c>
       <c r="E38" t="n">
-        <v>212928.14</v>
+        <v>311889.04</v>
       </c>
       <c r="F38" t="n">
-        <v>212784.94</v>
+        <v>319503.3</v>
       </c>
       <c r="G38" t="n">
-        <v>212802.2</v>
+        <v>319578.52</v>
+      </c>
+      <c r="H38" t="n">
+        <v>319443.36</v>
+      </c>
+      <c r="I38" t="n">
+        <v>319554.76</v>
+      </c>
+      <c r="J38" t="n">
+        <v>319426.94</v>
+      </c>
+      <c r="K38" t="n">
+        <v>307011.56</v>
+      </c>
+      <c r="L38" t="n">
+        <v>299217.31</v>
+      </c>
+      <c r="M38" t="n">
+        <v>299570.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>146318.7</v>
+        <v>212849.36</v>
       </c>
       <c r="C39" t="n">
-        <v>175301.41</v>
+        <v>212751.82</v>
       </c>
       <c r="D39" t="n">
-        <v>177960.24</v>
+        <v>212767.56</v>
       </c>
       <c r="E39" t="n">
-        <v>181045.68</v>
+        <v>212837.61</v>
       </c>
       <c r="F39" t="n">
-        <v>180978.22</v>
+        <v>212794.52</v>
       </c>
       <c r="G39" t="n">
-        <v>199575.23</v>
+        <v>212806.69</v>
+      </c>
+      <c r="H39" t="n">
+        <v>212777.28</v>
+      </c>
+      <c r="I39" t="n">
+        <v>212759.84</v>
+      </c>
+      <c r="J39" t="n">
+        <v>212757.96</v>
+      </c>
+      <c r="K39" t="n">
+        <v>212811.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>212885.72</v>
+      </c>
+      <c r="M39" t="n">
+        <v>212883.94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>786155</v>
+        <v>159198.75</v>
       </c>
       <c r="C40" t="n">
-        <v>786142.28</v>
+        <v>159108.49</v>
       </c>
       <c r="D40" t="n">
-        <v>797931.6800000001</v>
+        <v>118223.09</v>
       </c>
       <c r="E40" t="n">
-        <v>767583.7</v>
+        <v>146343.24</v>
       </c>
       <c r="F40" t="n">
-        <v>767367.7</v>
+        <v>146297.02</v>
       </c>
       <c r="G40" t="n">
-        <v>767636.28</v>
+        <v>146187.03</v>
+      </c>
+      <c r="H40" t="n">
+        <v>146340.82</v>
+      </c>
+      <c r="I40" t="n">
+        <v>146176.17</v>
+      </c>
+      <c r="J40" t="n">
+        <v>146293.72</v>
+      </c>
+      <c r="K40" t="n">
+        <v>146307.12</v>
+      </c>
+      <c r="L40" t="n">
+        <v>146191.53</v>
+      </c>
+      <c r="M40" t="n">
+        <v>146318.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1374503.45</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1374798.42</v>
-      </c>
+        <v>569589.4</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>1395954.16</v>
+        <v>632973.49</v>
       </c>
       <c r="E41" t="n">
-        <v>1374529.53</v>
+        <v>633372.9399999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1375062.21</v>
+        <v>678311.5</v>
       </c>
       <c r="G41" t="n">
-        <v>1576432.89</v>
+        <v>696351.76</v>
+      </c>
+      <c r="H41" t="n">
+        <v>786208.45</v>
+      </c>
+      <c r="I41" t="n">
+        <v>786255.46</v>
+      </c>
+      <c r="J41" t="n">
+        <v>786371.9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>785922.16</v>
+      </c>
+      <c r="L41" t="n">
+        <v>786210.66</v>
+      </c>
+      <c r="M41" t="n">
+        <v>786155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>431212.57</v>
+        <v>1153255.7</v>
       </c>
       <c r="C42" t="n">
-        <v>501216.76</v>
+        <v>1153463.4</v>
       </c>
       <c r="D42" t="n">
-        <v>509061.06</v>
+        <v>1152896.62</v>
       </c>
       <c r="E42" t="n">
-        <v>501338.03</v>
+        <v>1374703.58</v>
       </c>
       <c r="F42" t="n">
-        <v>510166.36</v>
+        <v>1375008.46</v>
       </c>
       <c r="G42" t="n">
-        <v>585429.37</v>
+        <v>1374769.03</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1374909.07</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1374700.97</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1374879.66</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1375352.72</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1374651.12</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1374503.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>528717.41</v>
+        <v>341306.89</v>
       </c>
       <c r="C43" t="n">
-        <v>598899.1</v>
+        <v>341388.75</v>
       </c>
       <c r="D43" t="n">
-        <v>607659.4399999999</v>
+        <v>391334.12</v>
       </c>
       <c r="E43" t="n">
-        <v>598687.59</v>
+        <v>391400.7</v>
       </c>
       <c r="F43" t="n">
-        <v>598637.46</v>
+        <v>424411.75</v>
       </c>
       <c r="G43" t="n">
-        <v>697442.78</v>
+        <v>409263.76</v>
+      </c>
+      <c r="H43" t="n">
+        <v>431351.92</v>
+      </c>
+      <c r="I43" t="n">
+        <v>431393.98</v>
+      </c>
+      <c r="J43" t="n">
+        <v>453372.59</v>
+      </c>
+      <c r="K43" t="n">
+        <v>403253.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>431478.33</v>
+      </c>
+      <c r="M43" t="n">
+        <v>431212.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>375458.29</v>
+        <v>507296.33</v>
       </c>
       <c r="C44" t="n">
-        <v>355348.03</v>
+        <v>507295.27</v>
       </c>
       <c r="D44" t="n">
-        <v>360867.41</v>
+        <v>507817.03</v>
       </c>
       <c r="E44" t="n">
-        <v>359264.64</v>
+        <v>507709.39</v>
       </c>
       <c r="F44" t="n">
-        <v>355010.45</v>
+        <v>529014.8</v>
       </c>
       <c r="G44" t="n">
-        <v>386595.75</v>
+        <v>528666.12</v>
+      </c>
+      <c r="H44" t="n">
+        <v>528720.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>528559.8100000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>529060.3199999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>528782.0600000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>528797.08</v>
+      </c>
+      <c r="M44" t="n">
+        <v>528717.41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2274265.86</v>
+        <v>367543.33</v>
       </c>
       <c r="C45" t="n">
-        <v>2273813.03</v>
+        <v>367494.79</v>
       </c>
       <c r="D45" t="n">
-        <v>2308722.96</v>
+        <v>344744.48</v>
       </c>
       <c r="E45" t="n">
-        <v>2274940.49</v>
+        <v>338263.33</v>
       </c>
       <c r="F45" t="n">
-        <v>2270209.27</v>
+        <v>366733.31</v>
       </c>
       <c r="G45" t="n">
-        <v>2324120</v>
+        <v>385735.05</v>
+      </c>
+      <c r="H45" t="n">
+        <v>386483.71</v>
+      </c>
+      <c r="I45" t="n">
+        <v>386514.54</v>
+      </c>
+      <c r="J45" t="n">
+        <v>386891.77</v>
+      </c>
+      <c r="K45" t="n">
+        <v>386453.24</v>
+      </c>
+      <c r="L45" t="n">
+        <v>386550.23</v>
+      </c>
+      <c r="M45" t="n">
+        <v>375458.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3057938.29</v>
+        <v>2313501.55</v>
       </c>
       <c r="C46" t="n">
-        <v>2960296.4</v>
+        <v>2313158.64</v>
       </c>
       <c r="D46" t="n">
-        <v>2909209.74</v>
+        <v>2313073.16</v>
       </c>
       <c r="E46" t="n">
-        <v>2866707.21</v>
+        <v>2401164.53</v>
       </c>
       <c r="F46" t="n">
-        <v>2866079.93</v>
+        <v>2400868.02</v>
       </c>
       <c r="G46" t="n">
-        <v>2864914.25</v>
+        <v>2400428.27</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2311754.86</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2311945.92</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2312639.03</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2311873.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2275198.67</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2274265.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>633354.5600000001</v>
+        <v>3982233.18</v>
       </c>
       <c r="C47" t="n">
-        <v>1326476.96</v>
+        <v>3981960.68</v>
       </c>
       <c r="D47" t="n">
-        <v>1578389.52</v>
+        <v>3941193.12</v>
       </c>
       <c r="E47" t="n">
-        <v>1991101.48</v>
+        <v>3941255.63</v>
       </c>
       <c r="F47" t="n">
-        <v>1989330.37</v>
+        <v>3942389.52</v>
       </c>
       <c r="G47" t="n">
-        <v>1989959.99</v>
+        <v>3941672.52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3903743.64</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3914646.49</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3860051.64</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3859060.97</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3256611.46</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3057938.29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>203131.66</v>
+        <v>5890140.48</v>
       </c>
       <c r="C48" t="n">
-        <v>203062.65</v>
+        <v>7475061.99</v>
       </c>
       <c r="D48" t="n">
-        <v>206174.34</v>
-      </c>
-      <c r="E48" t="n">
-        <v>203076.95</v>
-      </c>
-      <c r="F48" t="n">
-        <v>203032.22</v>
-      </c>
-      <c r="G48" t="n">
-        <v>203018.2</v>
-      </c>
+        <v>8406768.09</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1036707.23</v>
+        <v>42883.67</v>
       </c>
       <c r="C49" t="n">
-        <v>1057835.69</v>
+        <v>41495.97</v>
       </c>
       <c r="D49" t="n">
-        <v>1075978.41</v>
+        <v>178973.59</v>
       </c>
       <c r="E49" t="n">
-        <v>1064661.63</v>
+        <v>177648.58</v>
       </c>
       <c r="F49" t="n">
-        <v>1084246.57</v>
+        <v>177139.95</v>
       </c>
       <c r="G49" t="n">
-        <v>1104746.84</v>
+        <v>178973.29</v>
+      </c>
+      <c r="H49" t="n">
+        <v>180718.48</v>
+      </c>
+      <c r="I49" t="n">
+        <v>178921.11</v>
+      </c>
+      <c r="J49" t="n">
+        <v>301779.25</v>
+      </c>
+      <c r="K49" t="n">
+        <v>380459.99</v>
+      </c>
+      <c r="L49" t="n">
+        <v>380459.62</v>
+      </c>
+      <c r="M49" t="n">
+        <v>633354.5600000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>190817.94</v>
+      </c>
+      <c r="C50" t="n">
+        <v>190746.08</v>
+      </c>
+      <c r="D50" t="n">
+        <v>190775.88</v>
+      </c>
+      <c r="E50" t="n">
+        <v>202926</v>
+      </c>
+      <c r="F50" t="n">
+        <v>203024.26</v>
+      </c>
+      <c r="G50" t="n">
+        <v>203008.57</v>
+      </c>
+      <c r="H50" t="n">
+        <v>202939.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>202984.91</v>
+      </c>
+      <c r="J50" t="n">
+        <v>203073.03</v>
+      </c>
+      <c r="K50" t="n">
+        <v>203087.55</v>
+      </c>
+      <c r="L50" t="n">
+        <v>202981.39</v>
+      </c>
+      <c r="M50" t="n">
+        <v>203131.66</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>88525.25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>88448.78</v>
+      </c>
+      <c r="D51" t="n">
+        <v>88365.92</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1072879.15</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1071113.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1145062.76</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1037463.68</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1055651.6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1057149.45</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1059343.05</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1048927.28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1046656.46</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1047901.4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1039588.74</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1036707.23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B53" t="n">
+        <v>53643957.42</v>
+      </c>
+      <c r="C53" t="n">
+        <v>41773407.37</v>
+      </c>
+      <c r="D53" t="n">
+        <v>57253137.83</v>
+      </c>
+      <c r="E53" t="n">
+        <v>49798256.77</v>
+      </c>
+      <c r="F53" t="n">
+        <v>49615625.22</v>
+      </c>
+      <c r="G53" t="n">
+        <v>49686024.38</v>
+      </c>
+      <c r="H53" t="n">
+        <v>49789123.29</v>
+      </c>
+      <c r="I53" t="n">
+        <v>49299582.39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>49192853.39</v>
+      </c>
+      <c r="K53" t="n">
+        <v>49251365.6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>48860670.55</v>
+      </c>
+      <c r="M53" t="n">
         <v>48725239.73</v>
-      </c>
-      <c r="C50" t="n">
-        <v>49718277.2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>50570985.13</v>
-      </c>
-      <c r="E50" t="n">
-        <v>50039096.57</v>
-      </c>
-      <c r="F50" t="n">
-        <v>50959588.98</v>
-      </c>
-      <c r="G50" t="n">
-        <v>51923101.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555521.72</v>
+        <v>778477.79</v>
       </c>
       <c r="C2" t="n">
-        <v>780789.63</v>
+        <v>778291.45</v>
       </c>
       <c r="D2" t="n">
-        <v>951424.87</v>
+        <v>790442.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1004224.8</v>
+        <v>778670.97</v>
       </c>
       <c r="F2" t="n">
-        <v>1003943.48</v>
+        <v>785430.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1004459.38</v>
+        <v>800562.24</v>
       </c>
       <c r="H2" t="n">
-        <v>1004362.04</v>
+        <v>800636.73</v>
       </c>
       <c r="I2" t="n">
-        <v>927768.5600000001</v>
+        <v>755500.8100000001</v>
       </c>
       <c r="J2" t="n">
-        <v>861650.91</v>
+        <v>871404.08</v>
       </c>
       <c r="K2" t="n">
-        <v>821925.61</v>
+        <v>932359.95</v>
       </c>
       <c r="L2" t="n">
-        <v>821646.3100000001</v>
+        <v>1020470.47</v>
       </c>
       <c r="M2" t="n">
-        <v>778477.79</v>
+        <v>1048121.88</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1145264.69</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1196252.65</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1560416.28</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1638030.44</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1717351.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1636248.24</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1335140.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1301929.99</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1965552.25</v>
+        <v>2069147.86</v>
       </c>
       <c r="C3" t="n">
-        <v>1964743.29</v>
+        <v>2127198.9</v>
       </c>
       <c r="D3" t="n">
-        <v>2054790.46</v>
+        <v>2160272.96</v>
       </c>
       <c r="E3" t="n">
-        <v>2181128.59</v>
+        <v>2128485.73</v>
       </c>
       <c r="F3" t="n">
-        <v>2097522.72</v>
+        <v>2127146.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2123413</v>
+        <v>2229147.02</v>
       </c>
       <c r="H3" t="n">
-        <v>2026945.65</v>
+        <v>2387405.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2026217.15</v>
+        <v>2415315.36</v>
       </c>
       <c r="J3" t="n">
-        <v>2058094.54</v>
+        <v>2565085.94</v>
       </c>
       <c r="K3" t="n">
-        <v>2154507.96</v>
+        <v>2563574.46</v>
       </c>
       <c r="L3" t="n">
-        <v>2069650.92</v>
+        <v>2526945.24</v>
       </c>
       <c r="M3" t="n">
-        <v>2069147.86</v>
+        <v>2402110.34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2371402.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2371794.81</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2475103.37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2568585.92</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2679398.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2625482.74</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2648543.11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2600331.93</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180458.44</v>
+        <v>211079.15</v>
       </c>
       <c r="C4" t="n">
-        <v>191274.98</v>
+        <v>211295.13</v>
       </c>
       <c r="D4" t="n">
-        <v>211212.81</v>
+        <v>213502.07</v>
       </c>
       <c r="E4" t="n">
-        <v>211288.24</v>
+        <v>211300.43</v>
       </c>
       <c r="F4" t="n">
-        <v>211211.04</v>
+        <v>211083.35</v>
       </c>
       <c r="G4" t="n">
-        <v>212307.27</v>
+        <v>231484.78</v>
       </c>
       <c r="H4" t="n">
-        <v>211067.56</v>
+        <v>231536.34</v>
       </c>
       <c r="I4" t="n">
-        <v>211040.69</v>
+        <v>231589.21</v>
       </c>
       <c r="J4" t="n">
-        <v>210982.49</v>
+        <v>231514.25</v>
       </c>
       <c r="K4" t="n">
-        <v>211108.17</v>
+        <v>231634.5</v>
       </c>
       <c r="L4" t="n">
-        <v>211088.83</v>
+        <v>231619.96</v>
       </c>
       <c r="M4" t="n">
-        <v>211079.15</v>
+        <v>231003.26</v>
+      </c>
+      <c r="N4" t="n">
+        <v>255501.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>256413.66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>256473.01</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>255601.99</v>
+      </c>
+      <c r="R4" t="n">
+        <v>256421.23</v>
+      </c>
+      <c r="S4" t="n">
+        <v>256072.96</v>
+      </c>
+      <c r="T4" t="n">
+        <v>256094.18</v>
+      </c>
+      <c r="U4" t="n">
+        <v>256378.84</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +743,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>409772.54</v>
+        <v>472984.42</v>
       </c>
       <c r="C5" t="n">
-        <v>432395.27</v>
+        <v>489746.13</v>
       </c>
       <c r="D5" t="n">
-        <v>440779.01</v>
+        <v>497265</v>
       </c>
       <c r="E5" t="n">
-        <v>465560.74</v>
+        <v>489813.95</v>
       </c>
       <c r="F5" t="n">
-        <v>465464.9</v>
+        <v>454681.21</v>
       </c>
       <c r="G5" t="n">
-        <v>465428.34</v>
+        <v>444942.31</v>
       </c>
       <c r="H5" t="n">
-        <v>465364.01</v>
+        <v>528852.7</v>
       </c>
       <c r="I5" t="n">
-        <v>465643.84</v>
+        <v>514651.8</v>
       </c>
       <c r="J5" t="n">
-        <v>465696.68</v>
+        <v>608138.92</v>
       </c>
       <c r="K5" t="n">
-        <v>472865.62</v>
+        <v>608290.78</v>
       </c>
       <c r="L5" t="n">
-        <v>472678.58</v>
+        <v>626565.33</v>
       </c>
       <c r="M5" t="n">
-        <v>472984.42</v>
+        <v>672797.5600000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>741864.26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>660478.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>856509.09</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>873238.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>903558.0699999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>903341.45</v>
+      </c>
+      <c r="T5" t="n">
+        <v>975117.5699999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>978639.5600000001</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +810,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641526.89</v>
+        <v>591710.2</v>
       </c>
       <c r="C6" t="n">
-        <v>641456.41</v>
+        <v>591930.28</v>
       </c>
       <c r="D6" t="n">
-        <v>657942.6</v>
+        <v>600886.01</v>
       </c>
       <c r="E6" t="n">
-        <v>658007.58</v>
+        <v>591968.7</v>
       </c>
       <c r="F6" t="n">
-        <v>658359.03</v>
+        <v>591809.6800000001</v>
       </c>
       <c r="G6" t="n">
-        <v>658394.5600000001</v>
+        <v>591687.1899999999</v>
       </c>
       <c r="H6" t="n">
-        <v>658133.22</v>
+        <v>591777.7</v>
       </c>
       <c r="I6" t="n">
-        <v>658718.59</v>
+        <v>592167.47</v>
       </c>
       <c r="J6" t="n">
-        <v>658166.9300000001</v>
+        <v>646955.74</v>
       </c>
       <c r="K6" t="n">
-        <v>657991.4399999999</v>
+        <v>646534.61</v>
       </c>
       <c r="L6" t="n">
-        <v>658182.17</v>
+        <v>646570.49</v>
       </c>
       <c r="M6" t="n">
-        <v>591710.2</v>
+        <v>647101.21</v>
+      </c>
+      <c r="N6" t="n">
+        <v>646632.33</v>
+      </c>
+      <c r="O6" t="n">
+        <v>646727.99</v>
+      </c>
+      <c r="P6" t="n">
+        <v>870705.87</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>958647.48</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1037901.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1038264.61</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1037350.65</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1037820.58</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +877,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2121018</v>
+        <v>1903190.69</v>
       </c>
       <c r="C7" t="n">
-        <v>2121140.19</v>
+        <v>1903345.93</v>
       </c>
       <c r="D7" t="n">
-        <v>2121845.09</v>
+        <v>1933193.76</v>
       </c>
       <c r="E7" t="n">
-        <v>2121459.97</v>
+        <v>1892297.03</v>
       </c>
       <c r="F7" t="n">
-        <v>2120596.17</v>
+        <v>1893036.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2120566.16</v>
+        <v>1892515.07</v>
       </c>
       <c r="H7" t="n">
-        <v>2121909.71</v>
+        <v>1893251</v>
       </c>
       <c r="I7" t="n">
-        <v>2120791.07</v>
+        <v>1893103.44</v>
       </c>
       <c r="J7" t="n">
-        <v>2120631.15</v>
+        <v>1893136.04</v>
       </c>
       <c r="K7" t="n">
-        <v>2034919.45</v>
+        <v>1892085.19</v>
       </c>
       <c r="L7" t="n">
-        <v>2035947.65</v>
+        <v>1892491.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1903190.69</v>
+        <v>1892879.94</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1893372.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1892530.58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1857426.03</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1858247.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1857474.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1857572.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1857665.08</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1857970.71</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +944,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60203.17</v>
+        <v>59893.39</v>
       </c>
       <c r="C8" t="n">
-        <v>60345.62</v>
+        <v>60355.6</v>
       </c>
       <c r="D8" t="n">
-        <v>59638.56</v>
+        <v>60914.91</v>
       </c>
       <c r="E8" t="n">
-        <v>60126.72</v>
+        <v>59700.44</v>
       </c>
       <c r="F8" t="n">
-        <v>60133.3</v>
+        <v>59742.29</v>
       </c>
       <c r="G8" t="n">
-        <v>60358.58</v>
+        <v>59973.62</v>
       </c>
       <c r="H8" t="n">
-        <v>60286.51</v>
+        <v>60400.7</v>
       </c>
       <c r="I8" t="n">
-        <v>60194.15</v>
+        <v>60227.85</v>
       </c>
       <c r="J8" t="n">
-        <v>60009.85</v>
+        <v>59731.24</v>
       </c>
       <c r="K8" t="n">
-        <v>59909.2</v>
+        <v>60034.49</v>
       </c>
       <c r="L8" t="n">
-        <v>60356.31</v>
+        <v>60099.62</v>
       </c>
       <c r="M8" t="n">
-        <v>59893.39</v>
+        <v>59848.64</v>
+      </c>
+      <c r="N8" t="n">
+        <v>60102.48</v>
+      </c>
+      <c r="O8" t="n">
+        <v>60095.16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>95015.57000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>94925.81</v>
+      </c>
+      <c r="R8" t="n">
+        <v>94943.91</v>
+      </c>
+      <c r="S8" t="n">
+        <v>95590.66</v>
+      </c>
+      <c r="T8" t="n">
+        <v>94818.92</v>
+      </c>
+      <c r="U8" t="n">
+        <v>95267.72</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1011,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>280549.07</v>
+        <v>321693.89</v>
       </c>
       <c r="C9" t="n">
-        <v>315455.6</v>
+        <v>321599.78</v>
       </c>
       <c r="D9" t="n">
-        <v>328793.63</v>
+        <v>326239.74</v>
       </c>
       <c r="E9" t="n">
-        <v>328696.83</v>
+        <v>321247.93</v>
       </c>
       <c r="F9" t="n">
-        <v>328817.89</v>
+        <v>321665.91</v>
       </c>
       <c r="G9" t="n">
-        <v>328774.91</v>
+        <v>321691.99</v>
       </c>
       <c r="H9" t="n">
-        <v>328525.88</v>
+        <v>321386.15</v>
       </c>
       <c r="I9" t="n">
-        <v>328690.59</v>
+        <v>321415.69</v>
       </c>
       <c r="J9" t="n">
-        <v>328515.2</v>
+        <v>321408.63</v>
       </c>
       <c r="K9" t="n">
-        <v>321509.25</v>
+        <v>321509.01</v>
       </c>
       <c r="L9" t="n">
-        <v>321593.12</v>
+        <v>321303.14</v>
       </c>
       <c r="M9" t="n">
-        <v>321693.89</v>
+        <v>321287.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>321411.39</v>
+      </c>
+      <c r="O9" t="n">
+        <v>321640.16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>321684.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>321514.31</v>
+      </c>
+      <c r="R9" t="n">
+        <v>321605.89</v>
+      </c>
+      <c r="S9" t="n">
+        <v>321726.45</v>
+      </c>
+      <c r="T9" t="n">
+        <v>321659</v>
+      </c>
+      <c r="U9" t="n">
+        <v>321521.14</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1078,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22182.47</v>
+        <v>14636.93</v>
       </c>
       <c r="C10" t="n">
-        <v>14634.87</v>
+        <v>14606.05</v>
       </c>
       <c r="D10" t="n">
-        <v>14640.92</v>
+        <v>14819.23</v>
       </c>
       <c r="E10" t="n">
-        <v>14681.79</v>
+        <v>14663.81</v>
       </c>
       <c r="F10" t="n">
-        <v>14630.41</v>
+        <v>14659.74</v>
       </c>
       <c r="G10" t="n">
-        <v>14701.81</v>
+        <v>14616.31</v>
       </c>
       <c r="H10" t="n">
-        <v>14699.51</v>
+        <v>14614.25</v>
       </c>
       <c r="I10" t="n">
-        <v>14603.51</v>
+        <v>14684.14</v>
       </c>
       <c r="J10" t="n">
-        <v>14635.52</v>
+        <v>14693.93</v>
       </c>
       <c r="K10" t="n">
-        <v>14661.27</v>
+        <v>19732.22</v>
       </c>
       <c r="L10" t="n">
-        <v>14627.12</v>
+        <v>19712.62</v>
       </c>
       <c r="M10" t="n">
-        <v>14636.93</v>
+        <v>19638.45</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19702.91</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19669.78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>19713.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>19738.27</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13082.21</v>
+      </c>
+      <c r="S10" t="n">
+        <v>13118.04</v>
+      </c>
+      <c r="T10" t="n">
+        <v>21107.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>21118.99</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1145,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>483598.22</v>
+        <v>483304.19</v>
       </c>
       <c r="C11" t="n">
-        <v>482059.93</v>
+        <v>484248.39</v>
       </c>
       <c r="D11" t="n">
-        <v>484191.81</v>
+        <v>487155.99</v>
       </c>
       <c r="E11" t="n">
-        <v>480976.69</v>
+        <v>482043.62</v>
       </c>
       <c r="F11" t="n">
-        <v>480673.81</v>
+        <v>479982.74</v>
       </c>
       <c r="G11" t="n">
-        <v>483649.54</v>
+        <v>483497.08</v>
       </c>
       <c r="H11" t="n">
-        <v>484293.07</v>
+        <v>482588.97</v>
       </c>
       <c r="I11" t="n">
-        <v>485074.8</v>
+        <v>483111.82</v>
       </c>
       <c r="J11" t="n">
-        <v>482947.79</v>
+        <v>482886.76</v>
       </c>
       <c r="K11" t="n">
-        <v>482572.41</v>
+        <v>483973.32</v>
       </c>
       <c r="L11" t="n">
-        <v>483261.19</v>
+        <v>484720.59</v>
       </c>
       <c r="M11" t="n">
-        <v>483304.19</v>
+        <v>482121.63</v>
+      </c>
+      <c r="N11" t="n">
+        <v>480490.92</v>
+      </c>
+      <c r="O11" t="n">
+        <v>480443.21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>424668.54</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>423742.59</v>
+      </c>
+      <c r="R11" t="n">
+        <v>357909.73</v>
+      </c>
+      <c r="S11" t="n">
+        <v>216185.63</v>
+      </c>
+      <c r="T11" t="n">
+        <v>216341.24</v>
+      </c>
+      <c r="U11" t="n">
+        <v>212473.61</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1212,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59321.84</v>
+        <v>7132.76</v>
       </c>
       <c r="C12" t="n">
-        <v>59322.28</v>
+        <v>7135.05</v>
       </c>
       <c r="D12" t="n">
-        <v>59323.9</v>
+        <v>7238.29</v>
       </c>
       <c r="E12" t="n">
-        <v>59282.25</v>
+        <v>7131.91</v>
       </c>
       <c r="F12" t="n">
-        <v>59145.65</v>
+        <v>7130.92</v>
       </c>
       <c r="G12" t="n">
-        <v>59184.6</v>
+        <v>7133.19</v>
       </c>
       <c r="H12" t="n">
-        <v>59187</v>
+        <v>7133.28</v>
       </c>
       <c r="I12" t="n">
-        <v>59151.02</v>
+        <v>7134.37</v>
       </c>
       <c r="J12" t="n">
-        <v>59126.88</v>
+        <v>7128.59</v>
       </c>
       <c r="K12" t="n">
-        <v>7129.81</v>
+        <v>7128.71</v>
       </c>
       <c r="L12" t="n">
-        <v>7130.67</v>
+        <v>34967.77</v>
       </c>
       <c r="M12" t="n">
-        <v>7132.76</v>
+        <v>34950.97</v>
+      </c>
+      <c r="N12" t="n">
+        <v>34987.93</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11417.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11199.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11199.91</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11206.92</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11210.86</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11210.21</v>
+      </c>
+      <c r="U12" t="n">
+        <v>13876.43</v>
       </c>
     </row>
     <row r="13">
@@ -975,41 +1279,47 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13016.39</v>
+        <v>13032.97</v>
       </c>
       <c r="C13" t="n">
-        <v>13039.74</v>
+        <v>13003.23</v>
       </c>
       <c r="D13" t="n">
-        <v>13013.32</v>
+        <v>13205.83</v>
       </c>
       <c r="E13" t="n">
-        <v>13021.64</v>
+        <v>13059.33</v>
       </c>
       <c r="F13" t="n">
-        <v>13001.36</v>
+        <v>13025.39</v>
       </c>
       <c r="G13" t="n">
-        <v>13010.45</v>
+        <v>13037.43</v>
       </c>
       <c r="H13" t="n">
-        <v>13024.99</v>
+        <v>13051.08</v>
       </c>
       <c r="I13" t="n">
-        <v>13004.62</v>
+        <v>13002.04</v>
       </c>
       <c r="J13" t="n">
-        <v>13012.31</v>
+        <v>13035.32</v>
       </c>
       <c r="K13" t="n">
-        <v>13045.77</v>
+        <v>13035.93</v>
       </c>
       <c r="L13" t="n">
-        <v>13053.36</v>
-      </c>
-      <c r="M13" t="n">
-        <v>13032.97</v>
-      </c>
+        <v>13057.36</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1018,1438 +1328,2286 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1609557.2</v>
+        <v>1587125.16</v>
       </c>
       <c r="C14" t="n">
-        <v>1675673.22</v>
+        <v>1661824.27</v>
       </c>
       <c r="D14" t="n">
-        <v>1612861.63</v>
+        <v>1672936.95</v>
       </c>
       <c r="E14" t="n">
-        <v>1620808.06</v>
+        <v>1637278.66</v>
       </c>
       <c r="F14" t="n">
-        <v>1646250.41</v>
+        <v>1717503.11</v>
       </c>
       <c r="G14" t="n">
-        <v>1668172.55</v>
+        <v>1738098.92</v>
       </c>
       <c r="H14" t="n">
-        <v>1677670.85</v>
+        <v>1768712</v>
       </c>
       <c r="I14" t="n">
-        <v>1665821.69</v>
+        <v>1809541.58</v>
       </c>
       <c r="J14" t="n">
-        <v>1650765.16</v>
+        <v>1869365.95</v>
       </c>
       <c r="K14" t="n">
-        <v>1650561.95</v>
+        <v>1886557.78</v>
       </c>
       <c r="L14" t="n">
-        <v>1586748.31</v>
+        <v>1945378.14</v>
       </c>
       <c r="M14" t="n">
-        <v>1587125.16</v>
+        <v>2101935.71</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2138519.87</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2223019.52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2470485.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2494463.37</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2558112.32</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2486921.06</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2618227.19</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2761715.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>190921.05</v>
+        <v>434695.98</v>
       </c>
       <c r="C15" t="n">
-        <v>190918.76</v>
+        <v>434937.49</v>
       </c>
       <c r="D15" t="n">
-        <v>197904.85</v>
+        <v>441461.31</v>
       </c>
       <c r="E15" t="n">
-        <v>205602.39</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+        <v>434473.42</v>
+      </c>
+      <c r="F15" t="n">
+        <v>435975.09</v>
+      </c>
+      <c r="G15" t="n">
+        <v>435896.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>435734.32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>436067.42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>435716.48</v>
+      </c>
+      <c r="K15" t="n">
+        <v>435750.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>457889.82</v>
+      </c>
+      <c r="M15" t="n">
+        <v>457655.98</v>
+      </c>
+      <c r="N15" t="n">
+        <v>457696.77</v>
+      </c>
+      <c r="O15" t="n">
+        <v>437663.07</v>
+      </c>
+      <c r="P15" t="n">
+        <v>379058.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>378637.04</v>
+      </c>
+      <c r="R15" t="n">
+        <v>379026.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>378819.32</v>
+      </c>
+      <c r="T15" t="n">
+        <v>377335.52</v>
+      </c>
+      <c r="U15" t="n">
+        <v>377496.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434655.43</v>
+        <v>5124786.3</v>
       </c>
       <c r="C16" t="n">
-        <v>434722.52</v>
+        <v>5100806.46</v>
       </c>
       <c r="D16" t="n">
-        <v>434941.74</v>
+        <v>5141694.7</v>
       </c>
       <c r="E16" t="n">
-        <v>434605.53</v>
+        <v>5034553.32</v>
       </c>
       <c r="F16" t="n">
-        <v>434934.52</v>
+        <v>4987101.39</v>
       </c>
       <c r="G16" t="n">
-        <v>434833.61</v>
+        <v>4948491.47</v>
       </c>
       <c r="H16" t="n">
-        <v>434836.69</v>
+        <v>4950048.09</v>
       </c>
       <c r="I16" t="n">
-        <v>434747.34</v>
+        <v>4981403.23</v>
       </c>
       <c r="J16" t="n">
-        <v>434730.67</v>
+        <v>4981641.2</v>
       </c>
       <c r="K16" t="n">
-        <v>435006.71</v>
+        <v>4943935.79</v>
       </c>
       <c r="L16" t="n">
-        <v>434372.72</v>
+        <v>4919521.2</v>
       </c>
       <c r="M16" t="n">
-        <v>434695.98</v>
+        <v>4894731.28</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4893534.08</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4869551.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4819510.98</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4819842.68</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4842440.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4841632.62</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4843108.72</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4843764.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5520011.45</v>
+        <v>40202.54</v>
       </c>
       <c r="C17" t="n">
-        <v>5478700.07</v>
+        <v>40220.72</v>
       </c>
       <c r="D17" t="n">
-        <v>5466515.1</v>
+        <v>40823.3</v>
       </c>
       <c r="E17" t="n">
-        <v>5407769.52</v>
+        <v>40216.01</v>
       </c>
       <c r="F17" t="n">
-        <v>5383358.24</v>
+        <v>40219.95</v>
       </c>
       <c r="G17" t="n">
-        <v>5308848.31</v>
+        <v>40206.03</v>
       </c>
       <c r="H17" t="n">
-        <v>5309507.14</v>
+        <v>40204.98</v>
       </c>
       <c r="I17" t="n">
-        <v>5283728.39</v>
+        <v>40198.65</v>
       </c>
       <c r="J17" t="n">
-        <v>5236127.27</v>
+        <v>40217.41</v>
       </c>
       <c r="K17" t="n">
-        <v>5214306.24</v>
+        <v>40206.56</v>
       </c>
       <c r="L17" t="n">
-        <v>5202547.72</v>
+        <v>40200.66</v>
       </c>
       <c r="M17" t="n">
-        <v>5124786.3</v>
+        <v>40209.83</v>
+      </c>
+      <c r="N17" t="n">
+        <v>40216.52</v>
+      </c>
+      <c r="O17" t="n">
+        <v>40213.51</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40200.14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>40206.01</v>
+      </c>
+      <c r="R17" t="n">
+        <v>40206.76</v>
+      </c>
+      <c r="S17" t="n">
+        <v>40214.09</v>
+      </c>
+      <c r="T17" t="n">
+        <v>40216.07</v>
+      </c>
+      <c r="U17" t="n">
+        <v>40214.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40199.72</v>
+        <v>2946945.22</v>
       </c>
       <c r="C18" t="n">
-        <v>40202.68</v>
+        <v>2948234.82</v>
       </c>
       <c r="D18" t="n">
-        <v>40218.24</v>
+        <v>2994109.03</v>
       </c>
       <c r="E18" t="n">
-        <v>40203.08</v>
+        <v>2946916.7</v>
       </c>
       <c r="F18" t="n">
-        <v>40213.75</v>
+        <v>2948749.2</v>
       </c>
       <c r="G18" t="n">
-        <v>40216.45</v>
+        <v>2948923.44</v>
       </c>
       <c r="H18" t="n">
-        <v>40211.6</v>
+        <v>2948044.98</v>
       </c>
       <c r="I18" t="n">
-        <v>40217.83</v>
+        <v>2948798.43</v>
       </c>
       <c r="J18" t="n">
-        <v>40201.4</v>
+        <v>2948602.44</v>
       </c>
       <c r="K18" t="n">
-        <v>40198.84</v>
+        <v>2926907.8</v>
       </c>
       <c r="L18" t="n">
-        <v>40201.44</v>
+        <v>2926402.89</v>
       </c>
       <c r="M18" t="n">
-        <v>40202.54</v>
+        <v>2927326.76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2927516.32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2927237.21</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2768535.88</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2769413.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2768369.82</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2769006.28</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2769480.86</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2768837.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3718020.23</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>847579.61</v>
+      </c>
+      <c r="C19" t="n">
+        <v>847898.47</v>
+      </c>
       <c r="D19" t="n">
-        <v>3622237.5</v>
+        <v>860554.83</v>
       </c>
       <c r="E19" t="n">
-        <v>3622150.31</v>
+        <v>847673.1</v>
       </c>
       <c r="F19" t="n">
-        <v>3603438.56</v>
+        <v>847358.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3550336.11</v>
+        <v>847736.59</v>
       </c>
       <c r="H19" t="n">
-        <v>3531769.02</v>
+        <v>847227.12</v>
       </c>
       <c r="I19" t="n">
-        <v>3320625.63</v>
+        <v>847389.16</v>
       </c>
       <c r="J19" t="n">
-        <v>3031917.98</v>
+        <v>847549.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3032742.09</v>
+        <v>847783.99</v>
       </c>
       <c r="L19" t="n">
-        <v>3031017.75</v>
+        <v>847927.39</v>
       </c>
       <c r="M19" t="n">
-        <v>2946945.22</v>
+        <v>848025.4300000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>847412.4399999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>847211.96</v>
+      </c>
+      <c r="P19" t="n">
+        <v>764804.47</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>764883.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>764796.08</v>
+      </c>
+      <c r="S19" t="n">
+        <v>765334.99</v>
+      </c>
+      <c r="T19" t="n">
+        <v>983109.89</v>
+      </c>
+      <c r="U19" t="n">
+        <v>982735.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1128360.79</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>500079.71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>500339.2</v>
+      </c>
       <c r="D20" t="n">
-        <v>1043514.09</v>
+        <v>507763.62</v>
       </c>
       <c r="E20" t="n">
-        <v>1043142.73</v>
+        <v>500180.16</v>
       </c>
       <c r="F20" t="n">
-        <v>1043012.65</v>
+        <v>499993.84</v>
       </c>
       <c r="G20" t="n">
-        <v>1043023.22</v>
+        <v>500283.13</v>
       </c>
       <c r="H20" t="n">
-        <v>1061196.9</v>
+        <v>500003.99</v>
       </c>
       <c r="I20" t="n">
-        <v>1060663.62</v>
+        <v>500140.51</v>
       </c>
       <c r="J20" t="n">
-        <v>847323.84</v>
+        <v>500112.58</v>
       </c>
       <c r="K20" t="n">
-        <v>847354.45</v>
+        <v>500340.97</v>
       </c>
       <c r="L20" t="n">
-        <v>847394.11</v>
+        <v>500277.03</v>
       </c>
       <c r="M20" t="n">
-        <v>847579.61</v>
+        <v>500096.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>500393.83</v>
+      </c>
+      <c r="O20" t="n">
+        <v>500404.52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>480082.73</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>480183.77</v>
+      </c>
+      <c r="R20" t="n">
+        <v>480330.24</v>
+      </c>
+      <c r="S20" t="n">
+        <v>372002.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>372117.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>371852.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>500230.26</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>16545.02</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16558.05</v>
+      </c>
       <c r="D21" t="n">
-        <v>500249.45</v>
+        <v>16795.87</v>
       </c>
       <c r="E21" t="n">
-        <v>500340.49</v>
+        <v>16551.94</v>
       </c>
       <c r="F21" t="n">
-        <v>500113.67</v>
+        <v>16557.76</v>
       </c>
       <c r="G21" t="n">
-        <v>500062.05</v>
+        <v>16548.01</v>
       </c>
       <c r="H21" t="n">
-        <v>500108.68</v>
+        <v>16556.31</v>
       </c>
       <c r="I21" t="n">
-        <v>500014.61</v>
+        <v>16542.42</v>
       </c>
       <c r="J21" t="n">
-        <v>500375.36</v>
+        <v>16544.91</v>
       </c>
       <c r="K21" t="n">
-        <v>500058.83</v>
+        <v>16541.42</v>
       </c>
       <c r="L21" t="n">
-        <v>500260.57</v>
+        <v>16557.4</v>
       </c>
       <c r="M21" t="n">
-        <v>500079.71</v>
+        <v>16557.61</v>
+      </c>
+      <c r="N21" t="n">
+        <v>16554</v>
+      </c>
+      <c r="O21" t="n">
+        <v>16549.41</v>
+      </c>
+      <c r="P21" t="n">
+        <v>16558.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>16549.18</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16551.29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16555.46</v>
+      </c>
+      <c r="T21" t="n">
+        <v>16552.96</v>
+      </c>
+      <c r="U21" t="n">
+        <v>16546.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19993.64</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>30325.09</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30329.79</v>
+      </c>
       <c r="D22" t="n">
-        <v>16550.5</v>
+        <v>30792.57</v>
       </c>
       <c r="E22" t="n">
-        <v>16544.36</v>
+        <v>30333.9</v>
       </c>
       <c r="F22" t="n">
-        <v>16542.54</v>
+        <v>30318.08</v>
       </c>
       <c r="G22" t="n">
-        <v>16556.61</v>
+        <v>30330.93</v>
       </c>
       <c r="H22" t="n">
-        <v>16547.96</v>
+        <v>30325.12</v>
       </c>
       <c r="I22" t="n">
-        <v>16543.89</v>
+        <v>30330.31</v>
       </c>
       <c r="J22" t="n">
-        <v>16545.39</v>
+        <v>30322.75</v>
       </c>
       <c r="K22" t="n">
-        <v>16557.56</v>
+        <v>30331.12</v>
       </c>
       <c r="L22" t="n">
-        <v>16557.68</v>
+        <v>30334.44</v>
       </c>
       <c r="M22" t="n">
-        <v>16545.02</v>
+        <v>30321.38</v>
+      </c>
+      <c r="N22" t="n">
+        <v>30342.02</v>
+      </c>
+      <c r="O22" t="n">
+        <v>30315.74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>30316.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>30342.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>30321.26</v>
+      </c>
+      <c r="S22" t="n">
+        <v>30336.69</v>
+      </c>
+      <c r="T22" t="n">
+        <v>30345.51</v>
+      </c>
+      <c r="U22" t="n">
+        <v>30333.69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45407.82</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>2792950.86</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2792798.16</v>
+      </c>
       <c r="D23" t="n">
-        <v>36790.57</v>
+        <v>2834685.45</v>
       </c>
       <c r="E23" t="n">
-        <v>36787.71</v>
+        <v>2793307.41</v>
       </c>
       <c r="F23" t="n">
-        <v>36783.09</v>
+        <v>2793154.91</v>
       </c>
       <c r="G23" t="n">
-        <v>36781.78</v>
+        <v>2865092.85</v>
       </c>
       <c r="H23" t="n">
-        <v>36778.38</v>
+        <v>2864775.31</v>
       </c>
       <c r="I23" t="n">
-        <v>36773.83</v>
+        <v>2866547.7</v>
       </c>
       <c r="J23" t="n">
-        <v>36791.12</v>
+        <v>2864827.3</v>
       </c>
       <c r="K23" t="n">
-        <v>36778.7</v>
+        <v>2866452.8</v>
       </c>
       <c r="L23" t="n">
-        <v>36782.3</v>
+        <v>2864695.83</v>
       </c>
       <c r="M23" t="n">
-        <v>30325.09</v>
+        <v>2865730.57</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2866135.51</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2865134.35</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2697774.45</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2697923.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2697718.86</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2696827.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2697244.53</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2698227.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3101616.47</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>235963.68</v>
+      </c>
+      <c r="C24" t="n">
+        <v>236146.97</v>
+      </c>
       <c r="D24" t="n">
-        <v>2997351.81</v>
+        <v>239469.96</v>
       </c>
       <c r="E24" t="n">
-        <v>2943804.36</v>
+        <v>288756.78</v>
       </c>
       <c r="F24" t="n">
-        <v>2851242.69</v>
+        <v>336012.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2793601.56</v>
+        <v>417172.06</v>
       </c>
       <c r="H24" t="n">
-        <v>2792482.88</v>
+        <v>417033.41</v>
       </c>
       <c r="I24" t="n">
-        <v>2792747.75</v>
+        <v>416996.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2793141.06</v>
+        <v>417550.53</v>
       </c>
       <c r="K24" t="n">
-        <v>2792158.63</v>
+        <v>417669.48</v>
       </c>
       <c r="L24" t="n">
-        <v>2792123.64</v>
+        <v>416906.88</v>
       </c>
       <c r="M24" t="n">
-        <v>2792950.86</v>
+        <v>417452.38</v>
+      </c>
+      <c r="N24" t="n">
+        <v>412459.19</v>
+      </c>
+      <c r="O24" t="n">
+        <v>412371.55</v>
+      </c>
+      <c r="P24" t="n">
+        <v>412289.91</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>412024.31</v>
+      </c>
+      <c r="R24" t="n">
+        <v>413201.93</v>
+      </c>
+      <c r="S24" t="n">
+        <v>412313.29</v>
+      </c>
+      <c r="T24" t="n">
+        <v>412791.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>413129.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>297494.04</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>1659473.78</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1698646.85</v>
+      </c>
       <c r="D25" t="n">
-        <v>298379.17</v>
+        <v>1743717.55</v>
       </c>
       <c r="E25" t="n">
-        <v>296598.72</v>
+        <v>1678028.46</v>
       </c>
       <c r="F25" t="n">
-        <v>297937.56</v>
+        <v>1677340.79</v>
       </c>
       <c r="G25" t="n">
-        <v>297810.46</v>
+        <v>1741759.91</v>
       </c>
       <c r="H25" t="n">
-        <v>298437.45</v>
+        <v>1769117.39</v>
       </c>
       <c r="I25" t="n">
-        <v>298451.58</v>
+        <v>1819567.52</v>
       </c>
       <c r="J25" t="n">
-        <v>297112.64</v>
+        <v>2008224.23</v>
       </c>
       <c r="K25" t="n">
-        <v>235671.77</v>
+        <v>2071759.65</v>
       </c>
       <c r="L25" t="n">
-        <v>236425.87</v>
+        <v>2055783.5</v>
       </c>
       <c r="M25" t="n">
-        <v>235963.68</v>
+        <v>2068131.22</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2075029.83</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2053639.12</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2229715.02</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2314559.22</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2409316.04</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2248697.77</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2324058.93</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2227095.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1409067.53</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>1563937.42</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1595168.16</v>
+      </c>
       <c r="D26" t="n">
-        <v>1457206.68</v>
+        <v>1619313.42</v>
       </c>
       <c r="E26" t="n">
-        <v>1618645.03</v>
+        <v>1548373.48</v>
       </c>
       <c r="F26" t="n">
-        <v>1678779.59</v>
+        <v>1578622.43</v>
       </c>
       <c r="G26" t="n">
-        <v>1655625.54</v>
+        <v>1633967.94</v>
       </c>
       <c r="H26" t="n">
-        <v>1606862.93</v>
+        <v>1660879.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1555889.37</v>
+        <v>1686220.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1540438.84</v>
+        <v>1885194.01</v>
       </c>
       <c r="K26" t="n">
-        <v>1487276.09</v>
+        <v>1992882.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1536175.99</v>
+        <v>2042568.57</v>
       </c>
       <c r="M26" t="n">
-        <v>1659473.78</v>
+        <v>2074368.78</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2091863.42</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2058107.93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2035263.81</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2144089.99</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2185272.07</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2055515.87</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2180625.05</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2179170.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1386031.58</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>2341746.19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2342606.2</v>
+      </c>
       <c r="D27" t="n">
-        <v>1494802.26</v>
+        <v>2382388.8</v>
       </c>
       <c r="E27" t="n">
-        <v>1535279.55</v>
+        <v>2313039.55</v>
       </c>
       <c r="F27" t="n">
-        <v>1545419.92</v>
+        <v>2446494.51</v>
       </c>
       <c r="G27" t="n">
-        <v>1526230.24</v>
+        <v>2488143.24</v>
       </c>
       <c r="H27" t="n">
-        <v>1466254.76</v>
+        <v>2446085.17</v>
       </c>
       <c r="I27" t="n">
-        <v>1414152.01</v>
+        <v>2570074.27</v>
       </c>
       <c r="J27" t="n">
-        <v>1436303.46</v>
+        <v>2644270.41</v>
       </c>
       <c r="K27" t="n">
-        <v>1437206.58</v>
+        <v>2673326.14</v>
       </c>
       <c r="L27" t="n">
-        <v>1452746.13</v>
+        <v>2672585.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1563937.42</v>
+        <v>2667468.51</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2573223.05</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2573646.47</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3946656.07</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4033379.04</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4208854.84</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3794740.43</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3886495.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3571876.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1860247.18</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>1439805.44</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1539462.47</v>
+      </c>
       <c r="D28" t="n">
-        <v>2359610.82</v>
+        <v>1562488.51</v>
       </c>
       <c r="E28" t="n">
-        <v>2613295.01</v>
+        <v>1448745.73</v>
       </c>
       <c r="F28" t="n">
-        <v>2582560.55</v>
+        <v>1479812.72</v>
       </c>
       <c r="G28" t="n">
-        <v>2582685.63</v>
+        <v>1469757.46</v>
       </c>
       <c r="H28" t="n">
-        <v>2581765.98</v>
+        <v>1469624.83</v>
       </c>
       <c r="I28" t="n">
-        <v>2582739.27</v>
+        <v>1508905.62</v>
       </c>
       <c r="J28" t="n">
-        <v>2492005.92</v>
+        <v>1549538.99</v>
       </c>
       <c r="K28" t="n">
-        <v>2381740.74</v>
+        <v>1549687.06</v>
       </c>
       <c r="L28" t="n">
-        <v>2342087.01</v>
+        <v>1561120.9</v>
       </c>
       <c r="M28" t="n">
-        <v>2341746.19</v>
+        <v>1564637.99</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1564564.61</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1465686.09</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2263220.06</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2288543.46</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2309718.28</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2218027.05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2239818.87</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2209570.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1084903.44</v>
+        <v>173928.59</v>
       </c>
       <c r="C29" t="n">
-        <v>1317442.24</v>
+        <v>174285.2</v>
       </c>
       <c r="D29" t="n">
-        <v>1358597.38</v>
+        <v>176632.71</v>
       </c>
       <c r="E29" t="n">
-        <v>1437444.81</v>
+        <v>174030.78</v>
       </c>
       <c r="F29" t="n">
-        <v>1482660.1</v>
+        <v>174099.92</v>
       </c>
       <c r="G29" t="n">
-        <v>1502422.53</v>
+        <v>174183.99</v>
       </c>
       <c r="H29" t="n">
-        <v>1502213.6</v>
+        <v>174101.31</v>
       </c>
       <c r="I29" t="n">
-        <v>1502283.09</v>
+        <v>173894.43</v>
       </c>
       <c r="J29" t="n">
-        <v>1502039.67</v>
+        <v>173965.49</v>
       </c>
       <c r="K29" t="n">
-        <v>1502018.28</v>
+        <v>174225.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1392684.35</v>
+        <v>174109.61</v>
       </c>
       <c r="M29" t="n">
-        <v>1439805.44</v>
+        <v>174159.75</v>
+      </c>
+      <c r="N29" t="n">
+        <v>173951.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>173826.8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>174030.2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>174162.41</v>
+      </c>
+      <c r="R29" t="n">
+        <v>174243.51</v>
+      </c>
+      <c r="S29" t="n">
+        <v>173861.98</v>
+      </c>
+      <c r="T29" t="n">
+        <v>173877.61</v>
+      </c>
+      <c r="U29" t="n">
+        <v>173908.21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>304076</v>
+        <v>7500865.08</v>
       </c>
       <c r="C30" t="n">
-        <v>303875.61</v>
+        <v>7500604.68</v>
       </c>
       <c r="D30" t="n">
-        <v>173997.99</v>
+        <v>7615494.85</v>
       </c>
       <c r="E30" t="n">
-        <v>174063.52</v>
+        <v>7498509.38</v>
       </c>
       <c r="F30" t="n">
-        <v>174134.09</v>
+        <v>8101488.68</v>
       </c>
       <c r="G30" t="n">
-        <v>173883.95</v>
+        <v>8098192.82</v>
       </c>
       <c r="H30" t="n">
-        <v>174266.86</v>
+        <v>8500211.16</v>
       </c>
       <c r="I30" t="n">
-        <v>173825.66</v>
+        <v>8498140.470000001</v>
       </c>
       <c r="J30" t="n">
-        <v>174167.37</v>
+        <v>8498452.75</v>
       </c>
       <c r="K30" t="n">
-        <v>173977.82</v>
+        <v>8501979.42</v>
       </c>
       <c r="L30" t="n">
-        <v>174088.43</v>
+        <v>8501874.68</v>
       </c>
       <c r="M30" t="n">
-        <v>173928.59</v>
+        <v>8497486.91</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8500198.220000001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8501998.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9001084.74</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9002412.35</v>
+      </c>
+      <c r="R30" t="n">
+        <v>8997970.18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8998881.789999999</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9001208.310000001</v>
+      </c>
+      <c r="U30" t="n">
+        <v>9001303.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5640649.97</v>
+        <v>246969.72</v>
       </c>
       <c r="C31" t="n">
-        <v>5641847.99</v>
+        <v>247027.85</v>
       </c>
       <c r="D31" t="n">
-        <v>5643093.52</v>
+        <v>250695.32</v>
       </c>
       <c r="E31" t="n">
-        <v>5642648.24</v>
+        <v>247000.91</v>
       </c>
       <c r="F31" t="n">
-        <v>5641784.79</v>
+        <v>246994.73</v>
       </c>
       <c r="G31" t="n">
-        <v>5860180.53</v>
+        <v>247026.18</v>
       </c>
       <c r="H31" t="n">
-        <v>6112676.52</v>
+        <v>246987.32</v>
       </c>
       <c r="I31" t="n">
-        <v>6111576.02</v>
+        <v>246968.49</v>
       </c>
       <c r="J31" t="n">
-        <v>6609642.7</v>
+        <v>247063.55</v>
       </c>
       <c r="K31" t="n">
-        <v>6997255.62</v>
+        <v>254085.4</v>
       </c>
       <c r="L31" t="n">
-        <v>7497519.47</v>
+        <v>254005.09</v>
       </c>
       <c r="M31" t="n">
-        <v>7500865.08</v>
+        <v>279092.16</v>
+      </c>
+      <c r="N31" t="n">
+        <v>278896.89</v>
+      </c>
+      <c r="O31" t="n">
+        <v>278912.12</v>
+      </c>
+      <c r="P31" t="n">
+        <v>279028.79</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>299020.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>299091.39</v>
+      </c>
+      <c r="S31" t="n">
+        <v>298861.66</v>
+      </c>
+      <c r="T31" t="n">
+        <v>299109.73</v>
+      </c>
+      <c r="U31" t="n">
+        <v>298902.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>222077.87</v>
+        <v>61011.2</v>
       </c>
       <c r="C32" t="n">
-        <v>237028.35</v>
+        <v>61011.28</v>
       </c>
       <c r="D32" t="n">
-        <v>227086.86</v>
+        <v>61910.34</v>
       </c>
       <c r="E32" t="n">
-        <v>246944.91</v>
+        <v>60976.54</v>
       </c>
       <c r="F32" t="n">
-        <v>247078.44</v>
+        <v>60996.74</v>
       </c>
       <c r="G32" t="n">
-        <v>246958.21</v>
+        <v>60993.65</v>
       </c>
       <c r="H32" t="n">
-        <v>246925.34</v>
+        <v>60985.6</v>
       </c>
       <c r="I32" t="n">
-        <v>247094.71</v>
+        <v>60973.44</v>
       </c>
       <c r="J32" t="n">
-        <v>247019.78</v>
+        <v>60985.41</v>
       </c>
       <c r="K32" t="n">
-        <v>247088.03</v>
+        <v>61009.95</v>
       </c>
       <c r="L32" t="n">
-        <v>246968.34</v>
+        <v>61007.05</v>
       </c>
       <c r="M32" t="n">
-        <v>246969.72</v>
+        <v>61021.62</v>
+      </c>
+      <c r="N32" t="n">
+        <v>61013.36</v>
+      </c>
+      <c r="O32" t="n">
+        <v>60999.73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>61011.59</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>60986.48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>60988.97</v>
+      </c>
+      <c r="S32" t="n">
+        <v>61000.24</v>
+      </c>
+      <c r="T32" t="n">
+        <v>60981.04</v>
+      </c>
+      <c r="U32" t="n">
+        <v>60979.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50979.46</v>
+        <v>508321.92</v>
       </c>
       <c r="C33" t="n">
-        <v>50988.11</v>
+        <v>442879.64</v>
       </c>
       <c r="D33" t="n">
-        <v>50994.84</v>
+        <v>449736.67</v>
       </c>
       <c r="E33" t="n">
-        <v>50978.77</v>
+        <v>442802.02</v>
       </c>
       <c r="F33" t="n">
-        <v>51003.08</v>
+        <v>452982.9</v>
       </c>
       <c r="G33" t="n">
-        <v>50980.45</v>
+        <v>432892.71</v>
       </c>
       <c r="H33" t="n">
-        <v>51014.39</v>
+        <v>432968.49</v>
       </c>
       <c r="I33" t="n">
-        <v>50986.59</v>
+        <v>463018.33</v>
       </c>
       <c r="J33" t="n">
-        <v>51002.33</v>
+        <v>503254.71</v>
       </c>
       <c r="K33" t="n">
-        <v>50977.9</v>
+        <v>503083.73</v>
       </c>
       <c r="L33" t="n">
-        <v>50981.76</v>
+        <v>503175.91</v>
       </c>
       <c r="M33" t="n">
-        <v>61011.2</v>
+        <v>447907.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>447855.33</v>
+      </c>
+      <c r="O33" t="n">
+        <v>458320.24</v>
+      </c>
+      <c r="P33" t="n">
+        <v>458044.99</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>457952.33</v>
+      </c>
+      <c r="R33" t="n">
+        <v>487777.9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>487816.21</v>
+      </c>
+      <c r="T33" t="n">
+        <v>518168.86</v>
+      </c>
+      <c r="U33" t="n">
+        <v>557975.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>597986.5699999999</v>
+        <v>1109124.03</v>
       </c>
       <c r="C34" t="n">
-        <v>587771.51</v>
+        <v>1123801.73</v>
       </c>
       <c r="D34" t="n">
-        <v>577959.78</v>
+        <v>1141454.24</v>
       </c>
       <c r="E34" t="n">
-        <v>578251.95</v>
+        <v>1124197.76</v>
       </c>
       <c r="F34" t="n">
-        <v>578069.55</v>
+        <v>1144417.96</v>
       </c>
       <c r="G34" t="n">
-        <v>563339.09</v>
+        <v>1214148.8</v>
       </c>
       <c r="H34" t="n">
-        <v>572717.74</v>
+        <v>1213676.88</v>
       </c>
       <c r="I34" t="n">
-        <v>503139.77</v>
+        <v>1327285.37</v>
       </c>
       <c r="J34" t="n">
-        <v>493337.61</v>
+        <v>1356950.21</v>
       </c>
       <c r="K34" t="n">
-        <v>477994.56</v>
+        <v>1357232.03</v>
       </c>
       <c r="L34" t="n">
-        <v>508318.97</v>
+        <v>1381805.6</v>
       </c>
       <c r="M34" t="n">
-        <v>508321.92</v>
+        <v>1381925.46</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1382177.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1381766.56</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1401761.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1411366.67</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1411923.39</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1411414.28</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1431573.48</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1456653.64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1384726.83</v>
+        <v>277831.53</v>
       </c>
       <c r="C35" t="n">
-        <v>1395133.34</v>
+        <v>277943.84</v>
       </c>
       <c r="D35" t="n">
-        <v>1188931.85</v>
+        <v>274158.53</v>
       </c>
       <c r="E35" t="n">
-        <v>1189231.46</v>
+        <v>267398.56</v>
       </c>
       <c r="F35" t="n">
-        <v>1188785.33</v>
+        <v>272230.36</v>
       </c>
       <c r="G35" t="n">
-        <v>1189097.19</v>
+        <v>288846.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1188876.03</v>
+        <v>297296.13</v>
       </c>
       <c r="I35" t="n">
-        <v>1189435.29</v>
+        <v>307315.11</v>
       </c>
       <c r="J35" t="n">
-        <v>1189010.05</v>
+        <v>312708.61</v>
       </c>
       <c r="K35" t="n">
-        <v>1189274.34</v>
+        <v>328408.77</v>
       </c>
       <c r="L35" t="n">
-        <v>1133422.13</v>
+        <v>328647.21</v>
       </c>
       <c r="M35" t="n">
-        <v>1109124.03</v>
+        <v>382102.24</v>
+      </c>
+      <c r="N35" t="n">
+        <v>382124.32</v>
+      </c>
+      <c r="O35" t="n">
+        <v>391391.06</v>
+      </c>
+      <c r="P35" t="n">
+        <v>295080.14</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>288670.49</v>
+      </c>
+      <c r="R35" t="n">
+        <v>299933.64</v>
+      </c>
+      <c r="S35" t="n">
+        <v>316911.7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>347569.83</v>
+      </c>
+      <c r="U35" t="n">
+        <v>347244.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>191837.98</v>
+        <v>35231.5</v>
       </c>
       <c r="C36" t="n">
-        <v>200806.93</v>
+        <v>34165.94</v>
       </c>
       <c r="D36" t="n">
-        <v>257643.54</v>
+        <v>34681.36</v>
       </c>
       <c r="E36" t="n">
-        <v>269903.37</v>
+        <v>34151</v>
       </c>
       <c r="F36" t="n">
-        <v>267304.8</v>
+        <v>34136.56</v>
       </c>
       <c r="G36" t="n">
-        <v>267477.73</v>
+        <v>34138.35</v>
       </c>
       <c r="H36" t="n">
-        <v>317594.65</v>
+        <v>34153.86</v>
       </c>
       <c r="I36" t="n">
-        <v>317588.1</v>
+        <v>34137.21</v>
       </c>
       <c r="J36" t="n">
-        <v>317542.04</v>
+        <v>34158.95</v>
       </c>
       <c r="K36" t="n">
-        <v>317400.31</v>
+        <v>34155.4</v>
       </c>
       <c r="L36" t="n">
-        <v>315586</v>
+        <v>34162.12</v>
       </c>
       <c r="M36" t="n">
-        <v>277831.53</v>
+        <v>34147.88</v>
+      </c>
+      <c r="N36" t="n">
+        <v>34154.49</v>
+      </c>
+      <c r="O36" t="n">
+        <v>34141.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>34152.65</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>34148.65</v>
+      </c>
+      <c r="R36" t="n">
+        <v>32268.9</v>
+      </c>
+      <c r="S36" t="n">
+        <v>26264.93</v>
+      </c>
+      <c r="T36" t="n">
+        <v>26263.7</v>
+      </c>
+      <c r="U36" t="n">
+        <v>26281.56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31306.2</v>
+        <v>299570.19</v>
       </c>
       <c r="C37" t="n">
-        <v>31316.24</v>
+        <v>299568.43</v>
       </c>
       <c r="D37" t="n">
-        <v>35211.58</v>
+        <v>304179.77</v>
       </c>
       <c r="E37" t="n">
-        <v>35242.48</v>
+        <v>310013.71</v>
       </c>
       <c r="F37" t="n">
-        <v>35221.13</v>
+        <v>348972.21</v>
       </c>
       <c r="G37" t="n">
-        <v>35211.37</v>
+        <v>352055.42</v>
       </c>
       <c r="H37" t="n">
-        <v>35216.6</v>
+        <v>352033.07</v>
       </c>
       <c r="I37" t="n">
-        <v>35223.8</v>
+        <v>368977.64</v>
       </c>
       <c r="J37" t="n">
-        <v>35243.67</v>
+        <v>368539.21</v>
       </c>
       <c r="K37" t="n">
-        <v>35237.13</v>
+        <v>368588.52</v>
       </c>
       <c r="L37" t="n">
-        <v>35210.51</v>
+        <v>393143.94</v>
       </c>
       <c r="M37" t="n">
-        <v>35231.5</v>
+        <v>493942.39</v>
+      </c>
+      <c r="N37" t="n">
+        <v>456907.47</v>
+      </c>
+      <c r="O37" t="n">
+        <v>487127.91</v>
+      </c>
+      <c r="P37" t="n">
+        <v>462919.28</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>471417.23</v>
+      </c>
+      <c r="R37" t="n">
+        <v>489341.68</v>
+      </c>
+      <c r="S37" t="n">
+        <v>470426.92</v>
+      </c>
+      <c r="T37" t="n">
+        <v>472669.9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>437763.93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>261735.88</v>
+        <v>212883.94</v>
       </c>
       <c r="C38" t="n">
-        <v>277947.33</v>
+        <v>212899.57</v>
       </c>
       <c r="D38" t="n">
-        <v>282982.95</v>
+        <v>215978.33</v>
       </c>
       <c r="E38" t="n">
-        <v>311889.04</v>
+        <v>212928.14</v>
       </c>
       <c r="F38" t="n">
-        <v>319503.3</v>
+        <v>212784.94</v>
       </c>
       <c r="G38" t="n">
-        <v>319578.52</v>
+        <v>212802.2</v>
       </c>
       <c r="H38" t="n">
-        <v>319443.36</v>
+        <v>212787.24</v>
       </c>
       <c r="I38" t="n">
-        <v>319554.76</v>
+        <v>212904.11</v>
       </c>
       <c r="J38" t="n">
-        <v>319426.94</v>
+        <v>212884.22</v>
       </c>
       <c r="K38" t="n">
-        <v>307011.56</v>
+        <v>212805.01</v>
       </c>
       <c r="L38" t="n">
-        <v>299217.31</v>
+        <v>212940.14</v>
       </c>
       <c r="M38" t="n">
-        <v>299570.19</v>
+        <v>212899.86</v>
+      </c>
+      <c r="N38" t="n">
+        <v>212957.95</v>
+      </c>
+      <c r="O38" t="n">
+        <v>212899.17</v>
+      </c>
+      <c r="P38" t="n">
+        <v>224317.39</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>224233.1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>224367.59</v>
+      </c>
+      <c r="S38" t="n">
+        <v>224422.21</v>
+      </c>
+      <c r="T38" t="n">
+        <v>224373.6</v>
+      </c>
+      <c r="U38" t="n">
+        <v>224382.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212849.36</v>
+        <v>146318.7</v>
       </c>
       <c r="C39" t="n">
-        <v>212751.82</v>
+        <v>175301.41</v>
       </c>
       <c r="D39" t="n">
-        <v>212767.56</v>
+        <v>177960.24</v>
       </c>
       <c r="E39" t="n">
-        <v>212837.61</v>
+        <v>181045.68</v>
       </c>
       <c r="F39" t="n">
-        <v>212794.52</v>
+        <v>180978.22</v>
       </c>
       <c r="G39" t="n">
-        <v>212806.69</v>
+        <v>199575.23</v>
       </c>
       <c r="H39" t="n">
-        <v>212777.28</v>
+        <v>199538.31</v>
       </c>
       <c r="I39" t="n">
-        <v>212759.84</v>
+        <v>199494.28</v>
       </c>
       <c r="J39" t="n">
-        <v>212757.96</v>
+        <v>183105.44</v>
       </c>
       <c r="K39" t="n">
-        <v>212811.6</v>
+        <v>183046.14</v>
       </c>
       <c r="L39" t="n">
-        <v>212885.72</v>
+        <v>183125.17</v>
       </c>
       <c r="M39" t="n">
-        <v>212883.94</v>
+        <v>191627.3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>182448.65</v>
+      </c>
+      <c r="O39" t="n">
+        <v>182422.64</v>
+      </c>
+      <c r="P39" t="n">
+        <v>182973.11</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>216093.46</v>
+      </c>
+      <c r="R39" t="n">
+        <v>215980.68</v>
+      </c>
+      <c r="S39" t="n">
+        <v>215980.23</v>
+      </c>
+      <c r="T39" t="n">
+        <v>183093.27</v>
+      </c>
+      <c r="U39" t="n">
+        <v>183040.79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159198.75</v>
+        <v>786155</v>
       </c>
       <c r="C40" t="n">
-        <v>159108.49</v>
+        <v>786142.28</v>
       </c>
       <c r="D40" t="n">
-        <v>118223.09</v>
+        <v>797931.6800000001</v>
       </c>
       <c r="E40" t="n">
-        <v>146343.24</v>
+        <v>767583.7</v>
       </c>
       <c r="F40" t="n">
-        <v>146297.02</v>
+        <v>767367.7</v>
       </c>
       <c r="G40" t="n">
-        <v>146187.03</v>
+        <v>767636.28</v>
       </c>
       <c r="H40" t="n">
-        <v>146340.82</v>
+        <v>767713.99</v>
       </c>
       <c r="I40" t="n">
-        <v>146176.17</v>
+        <v>775011.92</v>
       </c>
       <c r="J40" t="n">
-        <v>146293.72</v>
+        <v>775441.54</v>
       </c>
       <c r="K40" t="n">
-        <v>146307.12</v>
+        <v>798620.6899999999</v>
       </c>
       <c r="L40" t="n">
-        <v>146191.53</v>
+        <v>867235.05</v>
       </c>
       <c r="M40" t="n">
-        <v>146318.7</v>
+        <v>877266</v>
+      </c>
+      <c r="N40" t="n">
+        <v>876954.75</v>
+      </c>
+      <c r="O40" t="n">
+        <v>877097.91</v>
+      </c>
+      <c r="P40" t="n">
+        <v>948775.88</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>948807.3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1072295.53</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1072000.74</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1072254.69</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1072055.86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>569589.4</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>1374503.45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1374798.42</v>
+      </c>
       <c r="D41" t="n">
-        <v>632973.49</v>
+        <v>1395954.16</v>
       </c>
       <c r="E41" t="n">
-        <v>633372.9399999999</v>
+        <v>1374529.53</v>
       </c>
       <c r="F41" t="n">
-        <v>678311.5</v>
+        <v>1375062.21</v>
       </c>
       <c r="G41" t="n">
-        <v>696351.76</v>
+        <v>1576432.89</v>
       </c>
       <c r="H41" t="n">
-        <v>786208.45</v>
+        <v>1576498.2</v>
       </c>
       <c r="I41" t="n">
-        <v>786255.46</v>
+        <v>1724728.78</v>
       </c>
       <c r="J41" t="n">
-        <v>786371.9</v>
+        <v>1875302.4</v>
       </c>
       <c r="K41" t="n">
-        <v>785922.16</v>
+        <v>1875629.39</v>
       </c>
       <c r="L41" t="n">
-        <v>786210.66</v>
+        <v>2025371.91</v>
       </c>
       <c r="M41" t="n">
-        <v>786155</v>
+        <v>2025590.3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2024841.87</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1772838.61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1839179.03</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2016112.31</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2255462.91</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2256790.1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2255719.35</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2256058.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1153255.7</v>
+        <v>431212.57</v>
       </c>
       <c r="C42" t="n">
-        <v>1153463.4</v>
+        <v>501216.76</v>
       </c>
       <c r="D42" t="n">
-        <v>1152896.62</v>
+        <v>509061.06</v>
       </c>
       <c r="E42" t="n">
-        <v>1374703.58</v>
+        <v>501338.03</v>
       </c>
       <c r="F42" t="n">
-        <v>1375008.46</v>
+        <v>510166.36</v>
       </c>
       <c r="G42" t="n">
-        <v>1374769.03</v>
+        <v>585429.37</v>
       </c>
       <c r="H42" t="n">
-        <v>1374909.07</v>
+        <v>585329.62</v>
       </c>
       <c r="I42" t="n">
-        <v>1374700.97</v>
+        <v>610153.12</v>
       </c>
       <c r="J42" t="n">
-        <v>1374879.66</v>
+        <v>635162.34</v>
       </c>
       <c r="K42" t="n">
-        <v>1375352.72</v>
+        <v>641191.79</v>
       </c>
       <c r="L42" t="n">
-        <v>1374651.12</v>
+        <v>665460.0699999999</v>
       </c>
       <c r="M42" t="n">
-        <v>1374503.45</v>
+        <v>675446.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>709120.75</v>
+      </c>
+      <c r="O42" t="n">
+        <v>669046.37</v>
+      </c>
+      <c r="P42" t="n">
+        <v>730210.35</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>730156.3100000001</v>
+      </c>
+      <c r="R42" t="n">
+        <v>730350.05</v>
+      </c>
+      <c r="S42" t="n">
+        <v>703077.47</v>
+      </c>
+      <c r="T42" t="n">
+        <v>665265.2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>665126.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>341306.89</v>
+        <v>528717.41</v>
       </c>
       <c r="C43" t="n">
-        <v>341388.75</v>
+        <v>598899.1</v>
       </c>
       <c r="D43" t="n">
-        <v>391334.12</v>
+        <v>607659.4399999999</v>
       </c>
       <c r="E43" t="n">
-        <v>391400.7</v>
+        <v>598687.59</v>
       </c>
       <c r="F43" t="n">
-        <v>424411.75</v>
+        <v>598637.46</v>
       </c>
       <c r="G43" t="n">
-        <v>409263.76</v>
+        <v>697442.78</v>
       </c>
       <c r="H43" t="n">
-        <v>431351.92</v>
+        <v>697199.1</v>
       </c>
       <c r="I43" t="n">
-        <v>431393.98</v>
+        <v>697344.17</v>
       </c>
       <c r="J43" t="n">
-        <v>453372.59</v>
+        <v>696886.83</v>
       </c>
       <c r="K43" t="n">
-        <v>403253.8</v>
+        <v>696874.16</v>
       </c>
       <c r="L43" t="n">
-        <v>431478.33</v>
+        <v>697096</v>
       </c>
       <c r="M43" t="n">
-        <v>431212.57</v>
+        <v>728976.73</v>
+      </c>
+      <c r="N43" t="n">
+        <v>693956.4300000001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>621310.47</v>
+      </c>
+      <c r="P43" t="n">
+        <v>544446.6</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>544837.03</v>
+      </c>
+      <c r="R43" t="n">
+        <v>544586.78</v>
+      </c>
+      <c r="S43" t="n">
+        <v>544291.02</v>
+      </c>
+      <c r="T43" t="n">
+        <v>541581.8199999999</v>
+      </c>
+      <c r="U43" t="n">
+        <v>541769.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>507296.33</v>
+        <v>375458.29</v>
       </c>
       <c r="C44" t="n">
-        <v>507295.27</v>
+        <v>355348.03</v>
       </c>
       <c r="D44" t="n">
-        <v>507817.03</v>
+        <v>360867.41</v>
       </c>
       <c r="E44" t="n">
-        <v>507709.39</v>
+        <v>359264.64</v>
       </c>
       <c r="F44" t="n">
-        <v>529014.8</v>
+        <v>355010.45</v>
       </c>
       <c r="G44" t="n">
-        <v>528666.12</v>
+        <v>386595.75</v>
       </c>
       <c r="H44" t="n">
-        <v>528720.1</v>
+        <v>386629.84</v>
       </c>
       <c r="I44" t="n">
-        <v>528559.8100000001</v>
+        <v>386615.43</v>
       </c>
       <c r="J44" t="n">
-        <v>529060.3199999999</v>
+        <v>386828.26</v>
       </c>
       <c r="K44" t="n">
-        <v>528782.0600000001</v>
+        <v>386659.97</v>
       </c>
       <c r="L44" t="n">
-        <v>528797.08</v>
+        <v>383220.2</v>
       </c>
       <c r="M44" t="n">
-        <v>528717.41</v>
+        <v>363655.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>358603.07</v>
+      </c>
+      <c r="O44" t="n">
+        <v>361615.13</v>
+      </c>
+      <c r="P44" t="n">
+        <v>398027.99</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>398040.71</v>
+      </c>
+      <c r="R44" t="n">
+        <v>575404.97</v>
+      </c>
+      <c r="S44" t="n">
+        <v>558628.8199999999</v>
+      </c>
+      <c r="T44" t="n">
+        <v>558684.85</v>
+      </c>
+      <c r="U44" t="n">
+        <v>558879.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>367543.33</v>
+        <v>2274265.86</v>
       </c>
       <c r="C45" t="n">
-        <v>367494.79</v>
+        <v>2273813.03</v>
       </c>
       <c r="D45" t="n">
-        <v>344744.48</v>
+        <v>2308722.96</v>
       </c>
       <c r="E45" t="n">
-        <v>338263.33</v>
+        <v>2274940.49</v>
       </c>
       <c r="F45" t="n">
-        <v>366733.31</v>
+        <v>2270209.27</v>
       </c>
       <c r="G45" t="n">
-        <v>385735.05</v>
+        <v>2324120</v>
       </c>
       <c r="H45" t="n">
-        <v>386483.71</v>
+        <v>2324928.57</v>
       </c>
       <c r="I45" t="n">
-        <v>386514.54</v>
+        <v>2345976.84</v>
       </c>
       <c r="J45" t="n">
-        <v>386891.77</v>
+        <v>2542393.59</v>
       </c>
       <c r="K45" t="n">
-        <v>386453.24</v>
+        <v>2578047.6</v>
       </c>
       <c r="L45" t="n">
-        <v>386550.23</v>
+        <v>2716428.8</v>
       </c>
       <c r="M45" t="n">
-        <v>375458.29</v>
+        <v>2754606.39</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2812590.42</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2814218.59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2527139.42</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2527254.83</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2526360.61</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2442992.81</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2423159.04</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2390013.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2313501.55</v>
+        <v>3057938.29</v>
       </c>
       <c r="C46" t="n">
-        <v>2313158.64</v>
+        <v>2960296.4</v>
       </c>
       <c r="D46" t="n">
-        <v>2313073.16</v>
+        <v>2909209.74</v>
       </c>
       <c r="E46" t="n">
-        <v>2401164.53</v>
+        <v>2866707.21</v>
       </c>
       <c r="F46" t="n">
-        <v>2400868.02</v>
+        <v>2866079.93</v>
       </c>
       <c r="G46" t="n">
-        <v>2400428.27</v>
+        <v>2864914.25</v>
       </c>
       <c r="H46" t="n">
-        <v>2311754.86</v>
+        <v>2867258.15</v>
       </c>
       <c r="I46" t="n">
-        <v>2311945.92</v>
+        <v>3006802.11</v>
       </c>
       <c r="J46" t="n">
-        <v>2312639.03</v>
+        <v>3087783.45</v>
       </c>
       <c r="K46" t="n">
-        <v>2311873.7</v>
+        <v>3087362.24</v>
       </c>
       <c r="L46" t="n">
-        <v>2275198.67</v>
+        <v>3145136.92</v>
       </c>
       <c r="M46" t="n">
-        <v>2274265.86</v>
+        <v>3193018.9</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3195373.94</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3228245.32</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3199936.74</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3200349.54</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3202575.11</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3201753.17</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3200984.8</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3202265.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3982233.18</v>
+        <v>633354.5600000001</v>
       </c>
       <c r="C47" t="n">
-        <v>3981960.68</v>
+        <v>1326476.96</v>
       </c>
       <c r="D47" t="n">
-        <v>3941193.12</v>
+        <v>1578389.52</v>
       </c>
       <c r="E47" t="n">
-        <v>3941255.63</v>
+        <v>1991101.48</v>
       </c>
       <c r="F47" t="n">
-        <v>3942389.52</v>
+        <v>1989330.37</v>
       </c>
       <c r="G47" t="n">
-        <v>3941672.52</v>
+        <v>1989959.99</v>
       </c>
       <c r="H47" t="n">
-        <v>3903743.64</v>
+        <v>1990888.84</v>
       </c>
       <c r="I47" t="n">
-        <v>3914646.49</v>
+        <v>1988309.67</v>
       </c>
       <c r="J47" t="n">
-        <v>3860051.64</v>
+        <v>1990581.58</v>
       </c>
       <c r="K47" t="n">
-        <v>3859060.97</v>
+        <v>1991619.02</v>
       </c>
       <c r="L47" t="n">
-        <v>3256611.46</v>
+        <v>1988116.39</v>
       </c>
       <c r="M47" t="n">
-        <v>3057938.29</v>
+        <v>1990305.8</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1990754.32</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1992477.39</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3633876.49</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4330721.94</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4490372.92</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4488707.31</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4488140.33</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4489067.76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5890140.48</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7475061.99</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8406768.09</v>
-      </c>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2459,202 +3617,226 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="n">
+        <v>121044.96</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>285840.45</v>
+      </c>
+      <c r="R48" t="n">
+        <v>288212.3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>287882.86</v>
+      </c>
+      <c r="T48" t="n">
+        <v>287820.85</v>
+      </c>
+      <c r="U48" t="n">
+        <v>286647.43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>42883.67</v>
+        <v>203131.66</v>
       </c>
       <c r="C49" t="n">
-        <v>41495.97</v>
+        <v>203062.65</v>
       </c>
       <c r="D49" t="n">
-        <v>178973.59</v>
+        <v>206174.34</v>
       </c>
       <c r="E49" t="n">
-        <v>177648.58</v>
+        <v>203076.95</v>
       </c>
       <c r="F49" t="n">
-        <v>177139.95</v>
+        <v>203032.22</v>
       </c>
       <c r="G49" t="n">
-        <v>178973.29</v>
+        <v>203018.2</v>
       </c>
       <c r="H49" t="n">
-        <v>180718.48</v>
+        <v>203059.93</v>
       </c>
       <c r="I49" t="n">
-        <v>178921.11</v>
+        <v>202978.66</v>
       </c>
       <c r="J49" t="n">
-        <v>301779.25</v>
+        <v>203117.08</v>
       </c>
       <c r="K49" t="n">
-        <v>380459.99</v>
+        <v>203054.82</v>
       </c>
       <c r="L49" t="n">
-        <v>380459.62</v>
+        <v>203103.29</v>
       </c>
       <c r="M49" t="n">
-        <v>633354.5600000001</v>
+        <v>202907.23</v>
+      </c>
+      <c r="N49" t="n">
+        <v>202956.92</v>
+      </c>
+      <c r="O49" t="n">
+        <v>203140.37</v>
+      </c>
+      <c r="P49" t="n">
+        <v>254586.17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>254442.72</v>
+      </c>
+      <c r="R49" t="n">
+        <v>254338.99</v>
+      </c>
+      <c r="S49" t="n">
+        <v>254618.47</v>
+      </c>
+      <c r="T49" t="n">
+        <v>254353.06</v>
+      </c>
+      <c r="U49" t="n">
+        <v>254507.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>190817.94</v>
+        <v>1036707.23</v>
       </c>
       <c r="C50" t="n">
-        <v>190746.08</v>
+        <v>1057835.69</v>
       </c>
       <c r="D50" t="n">
-        <v>190775.88</v>
+        <v>1075978.41</v>
       </c>
       <c r="E50" t="n">
-        <v>202926</v>
+        <v>1064661.63</v>
       </c>
       <c r="F50" t="n">
-        <v>203024.26</v>
+        <v>1084246.57</v>
       </c>
       <c r="G50" t="n">
-        <v>203008.57</v>
+        <v>1104746.84</v>
       </c>
       <c r="H50" t="n">
-        <v>202939.5</v>
+        <v>1119601.1</v>
       </c>
       <c r="I50" t="n">
-        <v>202984.91</v>
+        <v>1136418.24</v>
       </c>
       <c r="J50" t="n">
-        <v>203073.03</v>
+        <v>1168092.84</v>
       </c>
       <c r="K50" t="n">
-        <v>203087.55</v>
+        <v>1174844.82</v>
       </c>
       <c r="L50" t="n">
-        <v>202981.39</v>
+        <v>1189273.18</v>
       </c>
       <c r="M50" t="n">
-        <v>203131.66</v>
+        <v>1222926.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1225739.85</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1216130.68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1295213.08</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1331607.23</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1361466.79</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1331879.66</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1341562.32</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1333504.77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>88525.25</v>
+        <v>48725239.73</v>
       </c>
       <c r="C51" t="n">
-        <v>88448.78</v>
+        <v>49718277.2</v>
       </c>
       <c r="D51" t="n">
-        <v>88365.92</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1072879.15</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1071113.01</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1145062.76</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1037463.68</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1055651.6</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1057149.45</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1059343.05</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1048927.28</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1046656.46</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1047901.4</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1039588.74</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1036707.23</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>53643957.42</v>
-      </c>
-      <c r="C53" t="n">
-        <v>41773407.37</v>
-      </c>
-      <c r="D53" t="n">
-        <v>57253137.83</v>
-      </c>
-      <c r="E53" t="n">
-        <v>49798256.77</v>
-      </c>
-      <c r="F53" t="n">
-        <v>49615625.22</v>
-      </c>
-      <c r="G53" t="n">
-        <v>49686024.38</v>
-      </c>
-      <c r="H53" t="n">
-        <v>49789123.29</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49299582.39</v>
-      </c>
-      <c r="J53" t="n">
-        <v>49192853.39</v>
-      </c>
-      <c r="K53" t="n">
-        <v>49251365.6</v>
-      </c>
-      <c r="L53" t="n">
-        <v>48860670.55</v>
-      </c>
-      <c r="M53" t="n">
-        <v>48725239.73</v>
+        <v>50570985.13</v>
+      </c>
+      <c r="E51" t="n">
+        <v>50039096.57</v>
+      </c>
+      <c r="F51" t="n">
+        <v>50959588.98</v>
+      </c>
+      <c r="G51" t="n">
+        <v>51923101.64</v>
+      </c>
+      <c r="H51" t="n">
+        <v>52621251.91</v>
+      </c>
+      <c r="I51" t="n">
+        <v>53411657.4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>54900363.35</v>
+      </c>
+      <c r="K51" t="n">
+        <v>55217706.54</v>
+      </c>
+      <c r="L51" t="n">
+        <v>55895839.25</v>
+      </c>
+      <c r="M51" t="n">
+        <v>56254596.63</v>
+      </c>
+      <c r="N51" t="n">
+        <v>56384033.12</v>
+      </c>
+      <c r="O51" t="n">
+        <v>55942011.16</v>
+      </c>
+      <c r="P51" t="n">
+        <v>60875014.56</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>62585539.95</v>
+      </c>
+      <c r="R51" t="n">
+        <v>63988939.15</v>
+      </c>
+      <c r="S51" t="n">
+        <v>62598343.86</v>
+      </c>
+      <c r="T51" t="n">
+        <v>63053429.18</v>
+      </c>
+      <c r="U51" t="n">
+        <v>62674724.21</v>
       </c>
     </row>
   </sheetData>
